--- a/BD/HRM_IMPORT_FILE_SERVER_V001_QUEBX.xlsx
+++ b/BD/HRM_IMPORT_FILE_SERVER_V001_QUEBX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="12450" tabRatio="655" activeTab="2"/>
+    <workbookView windowWidth="27135" windowHeight="12450" tabRatio="655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="History Change" sheetId="13" r:id="rId1"/>
@@ -3826,11 +3826,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="128"/>
-      </rPr>
       <t>2.1.4 Ti</t>
     </r>
     <r>
@@ -3943,7 +3938,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">u đã có trong DB </t>
+      <t xml:space="preserve">u </t>
     </r>
   </si>
   <si>
@@ -4817,19 +4812,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="&quot;(&quot;0%&quot;)   &quot;;[Red]\-&quot;(&quot;0%&quot;)   &quot;;&quot;－    &quot;"/>
-    <numFmt numFmtId="179" formatCode="&quot;(&quot;0.00%&quot;)   &quot;;[Red]\-&quot;(&quot;0.00%&quot;)   &quot;;&quot;－    &quot;"/>
-    <numFmt numFmtId="180" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="179" formatCode="&quot;(&quot;0%&quot;)   &quot;;[Red]\-&quot;(&quot;0%&quot;)   &quot;;&quot;－    &quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="182" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="182" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="183" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="&quot;(&quot;0.00%&quot;)   &quot;;[Red]\-&quot;(&quot;0.00%&quot;)   &quot;;&quot;－    &quot;"/>
+    <numFmt numFmtId="185" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="184" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="185" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="0.00%&quot;   &quot;;[Red]\-0.00%&quot;   &quot;;&quot;－    &quot;"/>
+    <numFmt numFmtId="186" formatCode="0.00%&quot;   &quot;;[Red]\-0.00%&quot;   &quot;;&quot;－    &quot;"/>
+    <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="114">
     <font>
@@ -4903,11 +4898,64 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -4918,38 +4966,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4957,15 +4973,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4975,48 +4988,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="56"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5027,8 +5002,107 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐ・団"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.8"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.35"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5039,102 +5113,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="56"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ 明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5143,127 +5125,12 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="18"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="16"/>
-      <name val="Century Schoolbook"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.35"/>
-      <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="56"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="18"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="ＭＳ 明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="ＭＳ 明朝"/>
       <charset val="128"/>
     </font>
@@ -5276,9 +5143,106 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.35"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Arial Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="56"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5287,10 +5251,48 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5300,81 +5302,189 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="62"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="56"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="MS Sans Serif"/>
+      <sz val="13"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="56"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="18"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="8.8"/>
-      <color indexed="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="9.35"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="8"/>
-      <color indexed="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
+      <color indexed="16"/>
+      <name val="Century Schoolbook"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
-      <color indexed="18"/>
+      <color indexed="56"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -5387,152 +5497,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="18"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐ・団"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="56"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="ＭＳ 明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="56"/>
+      <sz val="18"/>
+      <color indexed="18"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="9"/>
-      <name val="Arial"/>
+      <name val="Arial Narrow"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="18"/>
-      <name val="MS Sans Serif"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5578,19 +5573,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5602,19 +5627,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5632,13 +5693,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="21"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5650,67 +5735,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5722,43 +5771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5770,19 +5783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5800,43 +5801,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="54"/>
+        <bgColor indexed="41"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5848,37 +5849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor indexed="54"/>
-        <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5890,19 +5861,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor indexed="21"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6734,22 +6729,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6759,26 +6778,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6807,45 +6806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6857,38 +6817,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="true"/>
-      </left>
       <right/>
       <top style="medium">
         <color auto="true"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="true"/>
       </bottom>
       <diagonal/>
@@ -6898,37 +6832,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6951,8 +6855,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6972,2899 +6876,2990 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
       <right/>
       <top style="medium">
         <color auto="true"/>
       </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color auto="true"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="79" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="96" fillId="2" borderId="78" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="2" borderId="78" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="77" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="2" borderId="78" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" applyFill="false" applyBorder="false">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="62" fillId="3" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="79" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="93" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="93" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="110" fillId="27" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="73" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="73" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="85" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="79" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="100" fillId="2" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="77" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="97" fillId="0" borderId="84" applyBorder="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="83" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="77" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="90" fillId="26" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="85" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="85" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="40" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="44" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="94" fillId="3" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="26" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="58" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="44" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="87" fillId="27" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="109" fillId="56" borderId="86" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="79" fillId="37" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="59" fillId="37" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="97" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="44" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="4" fontId="66" fillId="33" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="80" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="74" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="67" fillId="32" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="11" borderId="78" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="11" borderId="78" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyProtection="false">
       <alignment vertical="top" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="83" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="99" fillId="60" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyBorder="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="107" fillId="3" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="41" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="105" fillId="3" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="108" fillId="0" borderId="0" applyFill="false" applyBorder="false" applyAlignment="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0">
+      <alignment horizontal="center" wrapText="true"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="62">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="29" applyFill="false" applyBorder="false">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="75" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="103" fillId="3" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="16">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="61" fillId="35" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="77" fillId="45" borderId="69" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="41" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="80" fillId="46" borderId="1" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="89" fillId="2" borderId="84" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="80" fillId="46" borderId="1" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="99" fillId="22" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="100" fillId="20" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="54" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="16">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="54" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="104" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="84" fillId="50" borderId="83" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="58" fontId="98" fillId="0" borderId="0">
+      <alignment horizontal="center" wrapText="true"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="2" borderId="84" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="38" fontId="80" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="61" fillId="35" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="88" fillId="3" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="90" fillId="35" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="87" fillId="40" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="86" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="3" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="39" borderId="82" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="61" fillId="49" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="81" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="50" borderId="83" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="81" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="50" borderId="83" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="73" fillId="3" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyProtection="false">
       <alignment vertical="top" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="85" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="45" borderId="69" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="45" borderId="69" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="61" fillId="46" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="2" borderId="84" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="80" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false"/>
+    <xf numFmtId="0" fontId="67" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="4" fontId="111" fillId="22" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="54" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="110" fillId="40" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="72" fillId="40" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="39" borderId="79" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="36" borderId="75" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="76" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="65" fillId="20" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="36" borderId="75" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="76" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="44" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="56" borderId="68" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="55" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="59" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="109" fillId="27" borderId="71" applyNumberFormat="false" applyProtection="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="104" fillId="3" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="64" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="107" fillId="37" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="62" fillId="40" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="61" fillId="3" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="40" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="52" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="74" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="98" fillId="3" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="76" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="58" fontId="45" fillId="0" borderId="0">
-      <alignment horizontal="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="36" borderId="75" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="56" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="86" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="16">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="54" fillId="27" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="33" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="52" fillId="32" borderId="1" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="74" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="52" fillId="32" borderId="1" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="51" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="73" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="11" borderId="78" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="40" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="16">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="72" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="3" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="87" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="29" applyFill="false" applyBorder="false">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="62">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="39" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
-      <alignment horizontal="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="36" fillId="0" borderId="0" applyFill="false" applyBorder="false" applyAlignment="false"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="84" fillId="3" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="51" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="51" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="59" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="34" fillId="3" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="60" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="false"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="32" fillId="15" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="3" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyProtection="false">
       <alignment vertical="top" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="61" fillId="35" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="76" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="76" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="27" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="74" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="85" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="77" applyBorder="false"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="74" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="70" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="76" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="92" fillId="53" borderId="82" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="69" fillId="2" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="57" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="184" fontId="41" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="72" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="55" borderId="82" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="20" borderId="71" applyNumberFormat="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="35" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="35" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="70" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="53" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="top"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyFill="false" applyBorder="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="58" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="69" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="74" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="56" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="69" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="70" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="69" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="78" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="3" borderId="69" applyNumberFormat="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="68" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="81" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" applyFill="false" applyBorder="false">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="71" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="44" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="86" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="68" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="57" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="81" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="81" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="67" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="447" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="622" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="447" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="622" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="447" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="622" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="447" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="622" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="447" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="622" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="447" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="447" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="622" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="622" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="447" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="622" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="447" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="622" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="447" applyFont="true" applyFill="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="447" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="447" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="622" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="622" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="622" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="15" xfId="447" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="15" xfId="622" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="16" xfId="447" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="622" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="447" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="622" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="447" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="17" xfId="622" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="447" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="622" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="447" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="447" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="622" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="622" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment wrapText="true"/>
@@ -10014,7 +10009,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="42" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -10280,10 +10275,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1113" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1113" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -10297,1257 +10292,1257 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="772" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="772" applyNumberFormat="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="304" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="304" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="60" xfId="772" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="772" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="167" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="167" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="60" xfId="772" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="167" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="60" xfId="304" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="304" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="909" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="909" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="60" xfId="304" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="909" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="12" fillId="0" borderId="15" xfId="167" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="58" fontId="12" fillId="0" borderId="15" xfId="909" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="772" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="772" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="304" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="304" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="167" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="167" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="909" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="909" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="167" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="909" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="167" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="909" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="167" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="909" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="772" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="304" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="772" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="304" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="772" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="772" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="66" xfId="772" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="304" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="304" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="66" xfId="304" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1134">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 6 4" xfId="1"/>
-    <cellStyle name="Normal 2 2 2 7 3" xfId="2"/>
-    <cellStyle name="標準 2 2 7" xfId="3"/>
-    <cellStyle name="標準 11 3" xfId="4"/>
-    <cellStyle name="40% - アクセント 4 3" xfId="5"/>
-    <cellStyle name="標準 82" xfId="6"/>
-    <cellStyle name="標準 77" xfId="7"/>
-    <cellStyle name="標準 95" xfId="8"/>
-    <cellStyle name="標準 6 6" xfId="9"/>
-    <cellStyle name="標準 8 2 2 2" xfId="10"/>
-    <cellStyle name="標準 5 6 4 2" xfId="11"/>
-    <cellStyle name="標準 2 2 6 3" xfId="12"/>
-    <cellStyle name="標準 8 2 2 3" xfId="13"/>
-    <cellStyle name="標準 6 8 2" xfId="14"/>
-    <cellStyle name="標準 5" xfId="15"/>
-    <cellStyle name="通貨 2 5 5" xfId="16"/>
-    <cellStyle name="標準 8 11" xfId="17"/>
-    <cellStyle name="標準 9 3 2 2" xfId="18"/>
-    <cellStyle name="標準 6 7 4 2" xfId="19"/>
-    <cellStyle name="Normal 19 2" xfId="20"/>
-    <cellStyle name="Normal 24 2" xfId="21"/>
-    <cellStyle name="標準 5 2 3 2" xfId="22"/>
-    <cellStyle name="標準 3 9" xfId="23"/>
-    <cellStyle name="標準 122" xfId="24"/>
-    <cellStyle name="標準 117" xfId="25"/>
-    <cellStyle name="標準 6 4 3" xfId="26"/>
-    <cellStyle name="標準 2 2 7 3" xfId="27"/>
-    <cellStyle name="標準_MemPayorgChk(支払所属チェック)_設計書_v.4.0.0.1【Gr会社展開】" xfId="28"/>
-    <cellStyle name="標準 9" xfId="29"/>
-    <cellStyle name="標準 2 7 4" xfId="30"/>
-    <cellStyle name="標準 122 7 3 2" xfId="31"/>
-    <cellStyle name="説明文 3" xfId="32"/>
-    <cellStyle name="桁区切り 2 3 2" xfId="33"/>
-    <cellStyle name="標準 6 3 3 2" xfId="34"/>
-    <cellStyle name="標準 9 3 2 3" xfId="35"/>
-    <cellStyle name="標準 2 5 2" xfId="36"/>
-    <cellStyle name="標準 3 6 2 2 2" xfId="37"/>
-    <cellStyle name="標準 3 2 3 2" xfId="38"/>
-    <cellStyle name="見出し 2 2" xfId="39"/>
-    <cellStyle name="標準 3 2 4" xfId="40"/>
-    <cellStyle name="計算 2 2" xfId="41"/>
-    <cellStyle name="標準 122 7 3" xfId="42"/>
-    <cellStyle name="標準 5 2 6 3" xfId="43"/>
-    <cellStyle name="標準 7 2 6" xfId="44"/>
-    <cellStyle name="標準 72" xfId="45"/>
-    <cellStyle name="標準 67" xfId="46"/>
-    <cellStyle name="標準 5 2 2 5" xfId="47"/>
-    <cellStyle name="標準 4 2" xfId="48"/>
-    <cellStyle name="標準 9 2 2 2 2" xfId="49"/>
-    <cellStyle name="桁区切り 2 2" xfId="50"/>
-    <cellStyle name="標準 6 7 2 2" xfId="51"/>
-    <cellStyle name="標準 38" xfId="52"/>
-    <cellStyle name="標準 43" xfId="53"/>
-    <cellStyle name="桁区切り 2 2 3" xfId="54"/>
-    <cellStyle name="標準 6 4 2" xfId="55"/>
-    <cellStyle name="標準 2 2 7 2" xfId="56"/>
-    <cellStyle name="計算 3" xfId="57"/>
-    <cellStyle name="標準 122 9 2" xfId="58"/>
-    <cellStyle name="標準 6 7 3 2" xfId="59"/>
-    <cellStyle name="標準 88" xfId="60"/>
-    <cellStyle name="標準 93" xfId="61"/>
-    <cellStyle name="Normal 2 7 2" xfId="62"/>
-    <cellStyle name="通貨 2 3 4 3" xfId="63"/>
-    <cellStyle name="集計 3" xfId="64"/>
-    <cellStyle name="標準 5 6 4 3" xfId="65"/>
-    <cellStyle name="標準 122 7 3 3 2" xfId="66"/>
-    <cellStyle name="標準 5 2 2 4 2 4" xfId="67"/>
-    <cellStyle name="標準 9 7" xfId="68"/>
-    <cellStyle name="説明文 2 2" xfId="69"/>
-    <cellStyle name="計算 2" xfId="70"/>
-    <cellStyle name="標準 7 4 3" xfId="71"/>
-    <cellStyle name="見出し１" xfId="72"/>
-    <cellStyle name="標準 16 2 3 3" xfId="73"/>
-    <cellStyle name="標準 6 5" xfId="74"/>
-    <cellStyle name="標準_03_02_01_申請書入力" xfId="75"/>
-    <cellStyle name="Normal 14 2" xfId="76"/>
-    <cellStyle name="ハイパーリンク 4" xfId="77"/>
-    <cellStyle name="Normal 9" xfId="78"/>
-    <cellStyle name="標準 3 2 3" xfId="79"/>
-    <cellStyle name="標準 6 4 4" xfId="80"/>
-    <cellStyle name="標準 5 2 6 2 4" xfId="81"/>
-    <cellStyle name="標準 5 2" xfId="82"/>
-    <cellStyle name="良い 2 2" xfId="83"/>
-    <cellStyle name="見出し 2 2 2" xfId="84"/>
-    <cellStyle name="標準 7 7" xfId="85"/>
-    <cellStyle name="脱浦_?O±U" xfId="86"/>
-    <cellStyle name="標準 8 7" xfId="87"/>
-    <cellStyle name="脱浦 [0.00]_?O±U" xfId="88"/>
-    <cellStyle name="標準 8 19" xfId="89"/>
-    <cellStyle name="標準 6 7" xfId="90"/>
-    <cellStyle name="標準 5 2 6 4" xfId="91"/>
-    <cellStyle name="標準 9 6" xfId="92"/>
-    <cellStyle name="標準 8 14" xfId="93"/>
-    <cellStyle name="標準 2 2 2 5" xfId="94"/>
-    <cellStyle name="標準 2 2 9 2" xfId="95"/>
-    <cellStyle name="標準 9 2 2 2" xfId="96"/>
-    <cellStyle name="標準 92" xfId="97"/>
-    <cellStyle name="標準 87" xfId="98"/>
-    <cellStyle name="標準 6 3" xfId="99"/>
-    <cellStyle name="標準 91" xfId="100"/>
-    <cellStyle name="標準 86" xfId="101"/>
-    <cellStyle name="標準 8 9" xfId="102"/>
-    <cellStyle name="標準 4 2 3" xfId="103"/>
-    <cellStyle name="ハイパーリンク 3 3 2 2 2" xfId="104"/>
-    <cellStyle name="標準 8 6 3" xfId="105"/>
-    <cellStyle name="標準 8 6" xfId="106"/>
-    <cellStyle name="標準 2 4 5 3 3" xfId="107"/>
-    <cellStyle name="標準 8 6 2" xfId="108"/>
-    <cellStyle name="標準 8 5 3" xfId="109"/>
-    <cellStyle name="標準 85" xfId="110"/>
-    <cellStyle name="標準 90" xfId="111"/>
-    <cellStyle name="標準 8 5 2" xfId="112"/>
-    <cellStyle name="標準 7 5" xfId="113"/>
-    <cellStyle name="標準 5 2 7 2" xfId="114"/>
-    <cellStyle name="標準 8 4" xfId="115"/>
-    <cellStyle name="標準 9 2 2" xfId="116"/>
-    <cellStyle name="標準 8 3" xfId="117"/>
-    <cellStyle name="標準 6 3 3 2 2" xfId="118"/>
-    <cellStyle name="SAPBEXaggItem" xfId="119"/>
-    <cellStyle name="標準 8 2 2" xfId="120"/>
-    <cellStyle name="標準 5 6 4" xfId="121"/>
-    <cellStyle name="Normal 19 2 3" xfId="122"/>
-    <cellStyle name="Normal 8 3" xfId="123"/>
-    <cellStyle name="標準 5 2 6" xfId="124"/>
-    <cellStyle name="通貨 2 3 4" xfId="125"/>
-    <cellStyle name="標準 5 2 2 4 2 2" xfId="126"/>
-    <cellStyle name="標準 9 3" xfId="127"/>
-    <cellStyle name="標準 8 2" xfId="128"/>
-    <cellStyle name="標準 8 20" xfId="129"/>
-    <cellStyle name="標準 8 15" xfId="130"/>
-    <cellStyle name="標準 2 2 9 3" xfId="131"/>
-    <cellStyle name="標準 8 10" xfId="132"/>
-    <cellStyle name="通貨 2 5 4" xfId="133"/>
-    <cellStyle name="標準 6 7 4 3" xfId="134"/>
-    <cellStyle name="標準 8" xfId="135"/>
-    <cellStyle name="説明文 2" xfId="136"/>
-    <cellStyle name="標準 84" xfId="137"/>
-    <cellStyle name="標準 79" xfId="138"/>
-    <cellStyle name="標準 2 2 10 3" xfId="139"/>
-    <cellStyle name="標準 2 4 5 2" xfId="140"/>
-    <cellStyle name="標準 118 2 2" xfId="141"/>
-    <cellStyle name="標準 83" xfId="142"/>
-    <cellStyle name="標準 78" xfId="143"/>
-    <cellStyle name="標準 81" xfId="144"/>
-    <cellStyle name="標準 76" xfId="145"/>
-    <cellStyle name="標準 7 6 2 3" xfId="146"/>
-    <cellStyle name="標準 7 6 2 2" xfId="147"/>
-    <cellStyle name="標準 7 4 2" xfId="148"/>
-    <cellStyle name="標準 7 2 5" xfId="149"/>
-    <cellStyle name="標準 7" xfId="150"/>
-    <cellStyle name="標準 2 7 2" xfId="151"/>
-    <cellStyle name="標準 4 3" xfId="152"/>
-    <cellStyle name="標準 6 8 3" xfId="153"/>
-    <cellStyle name="標準 6 8" xfId="154"/>
-    <cellStyle name="標準 6 7 4" xfId="155"/>
-    <cellStyle name="標準 6 7 3 3" xfId="156"/>
-    <cellStyle name="標準 89" xfId="157"/>
-    <cellStyle name="標準 94" xfId="158"/>
-    <cellStyle name="標準 6 7 3" xfId="159"/>
-    <cellStyle name="標準 6 3 3 2 4" xfId="160"/>
-    <cellStyle name="Normal 7 3 3" xfId="161"/>
-    <cellStyle name="リンク セル 3" xfId="162"/>
-    <cellStyle name="標準 6 3 3 2 3" xfId="163"/>
-    <cellStyle name="Normal 7 3 2" xfId="164"/>
-    <cellStyle name="リンク セル 2" xfId="165"/>
-    <cellStyle name="見出し 3 2 2" xfId="166"/>
-    <cellStyle name="標準_新債権業務フロー_業務フロー" xfId="167"/>
-    <cellStyle name="標準 6" xfId="168"/>
-    <cellStyle name="見出し 2 3" xfId="169"/>
-    <cellStyle name="良い 2" xfId="170"/>
-    <cellStyle name="標準 5 8" xfId="171"/>
-    <cellStyle name="通貨 2 5" xfId="172"/>
-    <cellStyle name="標準 2 2 2 4 2" xfId="173"/>
-    <cellStyle name="標準 5 7" xfId="174"/>
-    <cellStyle name="標準 5 6 3 3" xfId="175"/>
-    <cellStyle name="標準 9 2" xfId="176"/>
-    <cellStyle name="標準 5 6 3" xfId="177"/>
-    <cellStyle name="標準 5 6 2 2 3" xfId="178"/>
-    <cellStyle name="標準 7 4" xfId="179"/>
-    <cellStyle name="40% - アクセント 5 3" xfId="180"/>
-    <cellStyle name="標準 12 3" xfId="181"/>
-    <cellStyle name="標準 5 6 2" xfId="182"/>
-    <cellStyle name="標準 5 6" xfId="183"/>
-    <cellStyle name="アクセント 2 2 2" xfId="184"/>
-    <cellStyle name="標準 5 4" xfId="185"/>
-    <cellStyle name="標準 5 2 6 3 2" xfId="186"/>
-    <cellStyle name="標準 7 4 4" xfId="187"/>
-    <cellStyle name="タイトル 2" xfId="188"/>
-    <cellStyle name="SAPBEXexcCritical" xfId="189"/>
-    <cellStyle name="スタイル 1" xfId="190"/>
-    <cellStyle name="標準 5 2 5 5" xfId="191"/>
-    <cellStyle name="標準 2 8 2" xfId="192"/>
-    <cellStyle name="標準 5 2 5 2 3" xfId="193"/>
-    <cellStyle name="標準 5 2 5 2 2" xfId="194"/>
-    <cellStyle name="標準 2 2 6 4" xfId="195"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="196"/>
-    <cellStyle name="標準 5 2 5 2" xfId="197"/>
-    <cellStyle name="標準 5 2 4" xfId="198"/>
-    <cellStyle name="標準 5 2 2 4 2 3" xfId="199"/>
-    <cellStyle name="標準 2 4 5 3 2" xfId="200"/>
-    <cellStyle name="標準 9 2 3" xfId="201"/>
-    <cellStyle name="標準 8 5" xfId="202"/>
-    <cellStyle name="標準 8 8 2" xfId="203"/>
-    <cellStyle name="標準 66" xfId="204"/>
-    <cellStyle name="標準 71" xfId="205"/>
-    <cellStyle name="標準 5 2 2 4" xfId="206"/>
-    <cellStyle name="標準 68" xfId="207"/>
-    <cellStyle name="標準 73" xfId="208"/>
-    <cellStyle name="標準 5 2 2 2 4" xfId="209"/>
-    <cellStyle name="標準 50" xfId="210"/>
-    <cellStyle name="標準 45" xfId="211"/>
-    <cellStyle name="標準 6 7 2 4" xfId="212"/>
-    <cellStyle name="標準 4 4" xfId="213"/>
-    <cellStyle name="標準 4 3 3 4" xfId="214"/>
-    <cellStyle name="標準 3 2 2 2" xfId="215"/>
-    <cellStyle name="標準 4 3 3 3" xfId="216"/>
-    <cellStyle name="標準 7 2 2 4" xfId="217"/>
-    <cellStyle name="標準 8 18" xfId="218"/>
-    <cellStyle name="標準 4 3 3 2" xfId="219"/>
-    <cellStyle name="標準 7 2 2 3" xfId="220"/>
-    <cellStyle name="標準 8 17" xfId="221"/>
-    <cellStyle name="集計 2" xfId="222"/>
-    <cellStyle name="通貨 2 3 4 2" xfId="223"/>
-    <cellStyle name="標準 4 3 2 5" xfId="224"/>
-    <cellStyle name="標準 2 2 2 4 2 3" xfId="225"/>
-    <cellStyle name="標準 4 3 2 2 4" xfId="226"/>
-    <cellStyle name="標準 4 3 2 2 3" xfId="227"/>
-    <cellStyle name="標準 4 3 2 2 2" xfId="228"/>
-    <cellStyle name="標準 4 2 2" xfId="229"/>
-    <cellStyle name="標準 2 2 3 4" xfId="230"/>
-    <cellStyle name="20% - アクセント 1 2" xfId="231"/>
-    <cellStyle name="標準 4" xfId="232"/>
-    <cellStyle name="標準 41" xfId="233"/>
-    <cellStyle name="標準 36" xfId="234"/>
-    <cellStyle name="標準 40" xfId="235"/>
-    <cellStyle name="標準 35" xfId="236"/>
-    <cellStyle name="標準 5 5" xfId="237"/>
-    <cellStyle name="標準 3 8 2" xfId="238"/>
-    <cellStyle name="標準 3 7 3 3" xfId="239"/>
-    <cellStyle name="警告文 2 2" xfId="240"/>
-    <cellStyle name="文字入力" xfId="241"/>
-    <cellStyle name="標準 3 7 2 3" xfId="242"/>
-    <cellStyle name="標準 3 6 2 2 2 3" xfId="243"/>
-    <cellStyle name="標準 2 4 16" xfId="244"/>
-    <cellStyle name="標準 3 6 2 3 2" xfId="245"/>
-    <cellStyle name="標準 2 5 3" xfId="246"/>
-    <cellStyle name="標準 3 6 2 2 3" xfId="247"/>
-    <cellStyle name="桁区切り 2 2 3 3" xfId="248"/>
-    <cellStyle name="追加スタイル（梅田）" xfId="249"/>
-    <cellStyle name="メモ 2" xfId="250"/>
-    <cellStyle name="標準 46" xfId="251"/>
-    <cellStyle name="標準 51" xfId="252"/>
-    <cellStyle name="標準 3 6 2 2" xfId="253"/>
-    <cellStyle name="標準 3 5 2" xfId="254"/>
-    <cellStyle name="標準 2 5" xfId="255"/>
-    <cellStyle name="標準 55" xfId="256"/>
-    <cellStyle name="標準 60" xfId="257"/>
-    <cellStyle name="ハイパーリンク 2 8 3" xfId="258"/>
-    <cellStyle name="標準 3 6 3 3" xfId="259"/>
-    <cellStyle name="標準 3 6 3" xfId="260"/>
-    <cellStyle name="標準 3 6" xfId="261"/>
-    <cellStyle name="ハイパーリンク 2 9 4" xfId="262"/>
-    <cellStyle name="標準 2 3 5 3 2" xfId="263"/>
-    <cellStyle name="Normal 2 2_Header" xfId="264"/>
-    <cellStyle name="標準 2 7" xfId="265"/>
-    <cellStyle name="標準 3 5 4" xfId="266"/>
-    <cellStyle name="標準 57" xfId="267"/>
-    <cellStyle name="標準 62" xfId="268"/>
-    <cellStyle name="標準 61" xfId="269"/>
-    <cellStyle name="標準 56" xfId="270"/>
-    <cellStyle name="標準 3 6 2 3" xfId="271"/>
-    <cellStyle name="標準 2 6" xfId="272"/>
-    <cellStyle name="標準 3 5 3" xfId="273"/>
-    <cellStyle name="標準 96" xfId="274"/>
-    <cellStyle name="標準 3 2 2 5" xfId="275"/>
-    <cellStyle name="標準 3 4 3" xfId="276"/>
-    <cellStyle name="ハイパーリンク 2 9 2 3" xfId="277"/>
-    <cellStyle name="標準 11" xfId="278"/>
-    <cellStyle name="標準 3 2 2 4" xfId="279"/>
-    <cellStyle name="標準 3 2 2 3" xfId="280"/>
-    <cellStyle name="標準 6 7 2 3" xfId="281"/>
-    <cellStyle name="標準 3 3 6 4" xfId="282"/>
-    <cellStyle name="見出し 4 2" xfId="283"/>
-    <cellStyle name="標準 3 3 6 3" xfId="284"/>
-    <cellStyle name="標準 3 3 6 2" xfId="285"/>
-    <cellStyle name="標準 3 3 2 2" xfId="286"/>
-    <cellStyle name="標準 7 2 4" xfId="287"/>
-    <cellStyle name="標準 3 3 5 2" xfId="288"/>
-    <cellStyle name="標準 3 2 2 2 3" xfId="289"/>
-    <cellStyle name="標準 3 2 2 2 2" xfId="290"/>
-    <cellStyle name="通貨 2 3 4 4" xfId="291"/>
-    <cellStyle name="集計 2 2" xfId="292"/>
-    <cellStyle name="ハイパーリンク 2 5 3" xfId="293"/>
-    <cellStyle name="標準 3 2 2" xfId="294"/>
-    <cellStyle name="標準 3" xfId="295"/>
-    <cellStyle name="Normal 7_Header" xfId="296"/>
-    <cellStyle name="標準 28 3" xfId="297"/>
-    <cellStyle name="標準 5 2 2 2 3" xfId="298"/>
-    <cellStyle name="標準 2 9 3" xfId="299"/>
-    <cellStyle name="標準 6 7 2" xfId="300"/>
-    <cellStyle name="標準 2 3 2" xfId="301"/>
-    <cellStyle name="標準 2 8 2 2 2" xfId="302"/>
-    <cellStyle name="標準 2 2 6 2" xfId="303"/>
-    <cellStyle name="標準 2 9" xfId="304"/>
-    <cellStyle name="60% - アクセント 3 2 2" xfId="305"/>
-    <cellStyle name="標準 122 10" xfId="306"/>
-    <cellStyle name="標準 5 2 2 2" xfId="307"/>
-    <cellStyle name="標準 59" xfId="308"/>
-    <cellStyle name="標準 64" xfId="309"/>
-    <cellStyle name="標準 3 6 3 2" xfId="310"/>
-    <cellStyle name="標準 3 5" xfId="311"/>
-    <cellStyle name="標準 3 6 2" xfId="312"/>
-    <cellStyle name="ハイパーリンク 2 9 3" xfId="313"/>
-    <cellStyle name="標準 3 6 5" xfId="314"/>
-    <cellStyle name="標準 3 8" xfId="315"/>
-    <cellStyle name="標準 7 6 2 2 3" xfId="316"/>
-    <cellStyle name="標準 75" xfId="317"/>
-    <cellStyle name="標準 80" xfId="318"/>
-    <cellStyle name="標準 3 4" xfId="319"/>
-    <cellStyle name="ハイパーリンク 2 9 2" xfId="320"/>
-    <cellStyle name="標準 99" xfId="321"/>
-    <cellStyle name="標準 2 8 3 3" xfId="322"/>
-    <cellStyle name="SAPBEXformats" xfId="323"/>
-    <cellStyle name="標準 3 6 4" xfId="324"/>
-    <cellStyle name="標準 3 7" xfId="325"/>
-    <cellStyle name="標準 3 3" xfId="326"/>
-    <cellStyle name="標準 98" xfId="327"/>
-    <cellStyle name="標準 2 8 3 2" xfId="328"/>
-    <cellStyle name="標準 2 4 4 2" xfId="329"/>
-    <cellStyle name="標準 8 2 2 4" xfId="330"/>
-    <cellStyle name="標準 2 4" xfId="331"/>
-    <cellStyle name="標準 2 8 2 3" xfId="332"/>
-    <cellStyle name="標準 54" xfId="333"/>
-    <cellStyle name="標準 49" xfId="334"/>
-    <cellStyle name="ハイパーリンク 2 8 2" xfId="335"/>
-    <cellStyle name="ハイパーリンク 3 3 2 3" xfId="336"/>
-    <cellStyle name="標準 28 2" xfId="337"/>
-    <cellStyle name="標準 2 3" xfId="338"/>
-    <cellStyle name="標準 2 8 2 2" xfId="339"/>
-    <cellStyle name="標準 53" xfId="340"/>
-    <cellStyle name="標準 48" xfId="341"/>
-    <cellStyle name="標準 2 2 9 4" xfId="342"/>
-    <cellStyle name="Comma [0]" xfId="343" builtinId="6"/>
-    <cellStyle name="標準 63" xfId="344"/>
-    <cellStyle name="標準 58" xfId="345"/>
-    <cellStyle name="標準 2 8" xfId="346"/>
-    <cellStyle name="Normal 2 7" xfId="347"/>
-    <cellStyle name="標準 2 4 5 4 2" xfId="348"/>
-    <cellStyle name="標準 9 5" xfId="349"/>
-    <cellStyle name="標準 9 3 3" xfId="350"/>
-    <cellStyle name="標準 2 4 5 3" xfId="351"/>
-    <cellStyle name="標準 118 2" xfId="352"/>
-    <cellStyle name="標準 2 4 5" xfId="353"/>
-    <cellStyle name="標準 2 4 4 3" xfId="354"/>
-    <cellStyle name="標準 2 4 4" xfId="355"/>
-    <cellStyle name="ハイパーリンク 2 8 2 3" xfId="356"/>
-    <cellStyle name="標準 2 4 3" xfId="357"/>
-    <cellStyle name="Normal 2 2 2_補足説明" xfId="358"/>
-    <cellStyle name="標準 2 4 2" xfId="359"/>
-    <cellStyle name="ハイパーリンク 2 8 2 2" xfId="360"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="361"/>
-    <cellStyle name="標準 12 2" xfId="362"/>
-    <cellStyle name="標準 2 4 20" xfId="363"/>
-    <cellStyle name="標準 2 4 15" xfId="364"/>
-    <cellStyle name="標準 3 6 2 2 2 2" xfId="365"/>
-    <cellStyle name="標準 2 4 14" xfId="366"/>
-    <cellStyle name="標準 2 3 7" xfId="367"/>
-    <cellStyle name="標準 122 4" xfId="368"/>
-    <cellStyle name="ハイパーリンク 3 3 2 2" xfId="369"/>
-    <cellStyle name="標準 2 3 6 2" xfId="370"/>
-    <cellStyle name="標準 5 2 5 3" xfId="371"/>
-    <cellStyle name="標準 122 3" xfId="372"/>
-    <cellStyle name="標準 2 3 6" xfId="373"/>
-    <cellStyle name="標準 2 4 12" xfId="374"/>
-    <cellStyle name="標準 2 3 5 4" xfId="375"/>
-    <cellStyle name="標準 2 4 11" xfId="376"/>
-    <cellStyle name="標準 2 3 5 3" xfId="377"/>
-    <cellStyle name="標準 2 4 10" xfId="378"/>
-    <cellStyle name="標準 2 3 5 2" xfId="379"/>
-    <cellStyle name="警告文 3" xfId="380"/>
-    <cellStyle name="標準 122 2" xfId="381"/>
-    <cellStyle name="標準 117 2" xfId="382"/>
-    <cellStyle name="標準 2 3 5" xfId="383"/>
-    <cellStyle name="標準 2 3 4" xfId="384"/>
-    <cellStyle name="標準 129" xfId="385"/>
-    <cellStyle name="標準 134" xfId="386"/>
-    <cellStyle name="標準 2 3 2 4" xfId="387"/>
-    <cellStyle name="Normal 2 2 10" xfId="388"/>
-    <cellStyle name="標準 2 2 9 2 2" xfId="389"/>
-    <cellStyle name="標準 2 3 2 2" xfId="390"/>
-    <cellStyle name="標準 132" xfId="391"/>
-    <cellStyle name="標準 127" xfId="392"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="393"/>
-    <cellStyle name="標準 2 2 7 4" xfId="394"/>
-    <cellStyle name="Title" xfId="395" builtinId="15"/>
-    <cellStyle name="標準 121 2" xfId="396"/>
-    <cellStyle name="標準 116 2" xfId="397"/>
-    <cellStyle name="標準 2 2 5" xfId="398"/>
-    <cellStyle name="標準 2 2 4" xfId="399"/>
-    <cellStyle name="標準 2 2 3 7" xfId="400"/>
-    <cellStyle name="Normal 2 14" xfId="401"/>
-    <cellStyle name="通貨 2 3" xfId="402"/>
-    <cellStyle name="標準 2 2 3 6 2" xfId="403"/>
-    <cellStyle name="40% - Accent3" xfId="404" builtinId="39"/>
-    <cellStyle name="ハイパーリンク 2 3 3" xfId="405"/>
-    <cellStyle name="標準 2 2 3 3" xfId="406"/>
-    <cellStyle name="標準 2 2 3 2" xfId="407"/>
-    <cellStyle name="標準 2 2 2 4 5" xfId="408"/>
-    <cellStyle name="見出し 3 3" xfId="409"/>
-    <cellStyle name="標準 2 2 2 2 4" xfId="410"/>
-    <cellStyle name="見出し 3 2" xfId="411"/>
-    <cellStyle name="標準 3 3 5 4" xfId="412"/>
-    <cellStyle name="標準 2 2 2 2 3" xfId="413"/>
-    <cellStyle name="標準 2 2 2 17" xfId="414"/>
-    <cellStyle name="標準 2 2 2 16" xfId="415"/>
-    <cellStyle name="標準 4 3 3" xfId="416"/>
-    <cellStyle name="標準 2 2 2 12" xfId="417"/>
-    <cellStyle name="標準 2 22" xfId="418"/>
-    <cellStyle name="標準 2 17" xfId="419"/>
-    <cellStyle name="標準 4 3 2" xfId="420"/>
-    <cellStyle name="標準 2 2 2 11" xfId="421"/>
-    <cellStyle name="標準 2 2 2 10" xfId="422"/>
-    <cellStyle name="40% - Accent1" xfId="423" builtinId="31"/>
-    <cellStyle name="標準 2 2 2 5 2" xfId="424"/>
-    <cellStyle name="標準 2 2 19" xfId="425"/>
-    <cellStyle name="標準 2 2 18" xfId="426"/>
-    <cellStyle name="Hyperlink" xfId="427" builtinId="8"/>
-    <cellStyle name="標準 2 2 20" xfId="428"/>
-    <cellStyle name="標準 2 2 15" xfId="429"/>
-    <cellStyle name="標準 2 2 14" xfId="430"/>
-    <cellStyle name="標準 2 4 13" xfId="431"/>
-    <cellStyle name="標準 2 2 12 2 2" xfId="432"/>
-    <cellStyle name="SAPBEXresItem" xfId="433"/>
-    <cellStyle name="標準 2 2 10 2" xfId="434"/>
-    <cellStyle name="標準 2 2 10" xfId="435"/>
-    <cellStyle name="標準 2 19" xfId="436"/>
-    <cellStyle name="標準 2 23" xfId="437"/>
-    <cellStyle name="標準 2 18" xfId="438"/>
-    <cellStyle name="標準 2 20" xfId="439"/>
-    <cellStyle name="標準 2 15" xfId="440"/>
-    <cellStyle name="標準 2 12" xfId="441"/>
-    <cellStyle name="標準 2 11" xfId="442"/>
-    <cellStyle name="標準 2 10 2" xfId="443"/>
-    <cellStyle name="標準 106" xfId="444"/>
-    <cellStyle name="標準 111" xfId="445"/>
-    <cellStyle name="標準 2 10" xfId="446"/>
-    <cellStyle name="標準 2" xfId="447"/>
-    <cellStyle name="標準 24 2" xfId="448"/>
-    <cellStyle name="標準 19 2" xfId="449"/>
-    <cellStyle name="悪い 2 2 2 3" xfId="450"/>
-    <cellStyle name="標準 16 4" xfId="451"/>
-    <cellStyle name="ハイパーリンク 3 3 2" xfId="452"/>
-    <cellStyle name="標準 16 3" xfId="453"/>
-    <cellStyle name="悪い 2 2 2 2" xfId="454"/>
-    <cellStyle name="標準 16 2 3 2" xfId="455"/>
-    <cellStyle name="標準 16 2 2 3" xfId="456"/>
-    <cellStyle name="標準 16 2 2 2" xfId="457"/>
-    <cellStyle name="標準 118 3" xfId="458"/>
-    <cellStyle name="標準 2 4 6" xfId="459"/>
-    <cellStyle name="標準 16 2 2" xfId="460"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="461"/>
-    <cellStyle name="標準 16 2" xfId="462"/>
-    <cellStyle name="20% - アクセント 1 2 2" xfId="463"/>
-    <cellStyle name="SAPBEXtitle" xfId="464"/>
-    <cellStyle name="標準 15 3" xfId="465"/>
-    <cellStyle name="標準 20 3" xfId="466"/>
-    <cellStyle name="標準 14" xfId="467"/>
-    <cellStyle name="Normal 2 2 7" xfId="468"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="469"/>
-    <cellStyle name="標準 135 2" xfId="470"/>
-    <cellStyle name="標準 134 2" xfId="471"/>
-    <cellStyle name="Accent2" xfId="472" builtinId="33"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="473"/>
-    <cellStyle name="標準 13 2" xfId="474"/>
-    <cellStyle name="標準 2 2 9 2 3" xfId="475"/>
-    <cellStyle name="標準 2 3 2 3" xfId="476"/>
-    <cellStyle name="標準 133" xfId="477"/>
-    <cellStyle name="標準 128" xfId="478"/>
-    <cellStyle name="悪い 2" xfId="479"/>
-    <cellStyle name="標準 122 9 4" xfId="480"/>
-    <cellStyle name="桁区切り 2 6 2" xfId="481"/>
-    <cellStyle name="標準 122 9 3 2" xfId="482"/>
-    <cellStyle name="標準 122 9 3" xfId="483"/>
-    <cellStyle name="標準 122 9" xfId="484"/>
-    <cellStyle name="標準 5 6 3 2" xfId="485"/>
-    <cellStyle name="標準 122 7 6 2" xfId="486"/>
-    <cellStyle name="標準 122 7 4" xfId="487"/>
-    <cellStyle name="標準 122 7 3 4" xfId="488"/>
-    <cellStyle name="標準 122 7 3 3" xfId="489"/>
-    <cellStyle name="標準 122 7 2" xfId="490"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="491"/>
-    <cellStyle name="標準 2 2 11 3" xfId="492"/>
-    <cellStyle name="標準 122 7" xfId="493"/>
-    <cellStyle name="標準 120 3" xfId="494"/>
-    <cellStyle name="標準 120 2" xfId="495"/>
-    <cellStyle name="標準 3 3 5 3" xfId="496"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="497"/>
-    <cellStyle name="標準 12 2 3 3" xfId="498"/>
-    <cellStyle name="標準 12 2 3" xfId="499"/>
-    <cellStyle name="標準 12 2 2 3" xfId="500"/>
-    <cellStyle name="40% - アクセント 5 2 2" xfId="501"/>
-    <cellStyle name="標準 12 2 2" xfId="502"/>
-    <cellStyle name="標準 2 2 21" xfId="503"/>
-    <cellStyle name="標準 2 2 16" xfId="504"/>
-    <cellStyle name="標準 119 3 2" xfId="505"/>
-    <cellStyle name="通貨 2 5 2" xfId="506"/>
-    <cellStyle name="アクセント 5 2" xfId="507"/>
-    <cellStyle name="標準 119 3" xfId="508"/>
-    <cellStyle name="標準 4 3 2 4" xfId="509"/>
-    <cellStyle name="60% - アクセント 2 2 2" xfId="510"/>
-    <cellStyle name="標準 2 2 2 4 2 2" xfId="511"/>
-    <cellStyle name="ハイパーリンク 3 5" xfId="512"/>
-    <cellStyle name="標準 2 2 13" xfId="513"/>
-    <cellStyle name="標準 2 2 12" xfId="514"/>
-    <cellStyle name="標準 4 3 2 3" xfId="515"/>
-    <cellStyle name="標準 119 2" xfId="516"/>
-    <cellStyle name="標準 124" xfId="517"/>
-    <cellStyle name="標準 119" xfId="518"/>
-    <cellStyle name="標準 7 6 2" xfId="519"/>
-    <cellStyle name="標準 2 3 8" xfId="520"/>
-    <cellStyle name="標準 122 5" xfId="521"/>
-    <cellStyle name="標準 2 2 9" xfId="522"/>
-    <cellStyle name="標準 2 2 6" xfId="523"/>
-    <cellStyle name="標準 121 3" xfId="524"/>
-    <cellStyle name="標準 116 3" xfId="525"/>
-    <cellStyle name="標準 121" xfId="526"/>
-    <cellStyle name="標準 116" xfId="527"/>
-    <cellStyle name="標準 120" xfId="528"/>
-    <cellStyle name="標準 115" xfId="529"/>
-    <cellStyle name="Output" xfId="530" builtinId="21"/>
-    <cellStyle name="標準 42" xfId="531"/>
-    <cellStyle name="標準 37" xfId="532"/>
-    <cellStyle name="標準 11 9" xfId="533"/>
-    <cellStyle name="標準 5 2 6 2 3" xfId="534"/>
-    <cellStyle name="標準 5 2 6 2 2" xfId="535"/>
-    <cellStyle name="標準 11 8" xfId="536"/>
-    <cellStyle name="SAPBEXchaText" xfId="537"/>
-    <cellStyle name="標準 11 7" xfId="538"/>
-    <cellStyle name="標準 2 2 2 20" xfId="539"/>
-    <cellStyle name="標準 2 2 2 15" xfId="540"/>
-    <cellStyle name="標準 11 6" xfId="541"/>
-    <cellStyle name="標準 4 2 3 4" xfId="542"/>
-    <cellStyle name="標準 2 2 2 14" xfId="543"/>
-    <cellStyle name="標準 11 5" xfId="544"/>
-    <cellStyle name="標準 4 2 3 3" xfId="545"/>
-    <cellStyle name="標準 32" xfId="546"/>
-    <cellStyle name="標準 27" xfId="547"/>
-    <cellStyle name="標準 4 2 3 2" xfId="548"/>
-    <cellStyle name="標準 11 4" xfId="549"/>
-    <cellStyle name="SAPBEXfilterText" xfId="550"/>
-    <cellStyle name="標準 2 2 2 13" xfId="551"/>
-    <cellStyle name="標準 114" xfId="552"/>
-    <cellStyle name="標準 109" xfId="553"/>
-    <cellStyle name="標準 110" xfId="554"/>
-    <cellStyle name="標準 105" xfId="555"/>
-    <cellStyle name="標準 5 2 4 2" xfId="556"/>
-    <cellStyle name="標準 104" xfId="557"/>
-    <cellStyle name="標準 3 6 4 5" xfId="558"/>
-    <cellStyle name="標準 103" xfId="559"/>
-    <cellStyle name="標準 3 6 4 4" xfId="560"/>
-    <cellStyle name="標準 102" xfId="561"/>
-    <cellStyle name="標準 112" xfId="562"/>
-    <cellStyle name="標準 107" xfId="563"/>
-    <cellStyle name="標準 2 10 3" xfId="564"/>
-    <cellStyle name="標準 4 5" xfId="565"/>
-    <cellStyle name="標準 100" xfId="566"/>
-    <cellStyle name="標準 3 7 2" xfId="567"/>
-    <cellStyle name="標準 3 6 4 2" xfId="568"/>
-    <cellStyle name="Normal 2 12 3" xfId="569"/>
-    <cellStyle name="アクセント 1 3" xfId="570"/>
-    <cellStyle name="標準 4 2 2 4" xfId="571"/>
-    <cellStyle name="標準 10 6" xfId="572"/>
-    <cellStyle name="60% - アクセント 1 2 2" xfId="573"/>
-    <cellStyle name="桁区切り 2 4 3" xfId="574"/>
-    <cellStyle name="桁区切り 2 7" xfId="575"/>
-    <cellStyle name="桁区切り 2 5" xfId="576"/>
-    <cellStyle name="Normal 21 2 3" xfId="577"/>
-    <cellStyle name="桁区切り 2 4 2 2" xfId="578"/>
-    <cellStyle name="標準 10 5" xfId="579"/>
-    <cellStyle name="標準 4 2 2 3" xfId="580"/>
-    <cellStyle name="桁区切り 2 4 2" xfId="581"/>
-    <cellStyle name="桁区切り 2 4" xfId="582"/>
-    <cellStyle name="標準 2 3 5 2 2" xfId="583"/>
-    <cellStyle name="標準 12" xfId="584"/>
-    <cellStyle name="桁区切り 2 3 3" xfId="585"/>
-    <cellStyle name="標準 30" xfId="586"/>
-    <cellStyle name="標準 25" xfId="587"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="588"/>
-    <cellStyle name="標準 11 2" xfId="589"/>
-    <cellStyle name="桁区切り 2 3 2 2" xfId="590"/>
-    <cellStyle name="Normal 20 2 3" xfId="591"/>
-    <cellStyle name="桁区切り 2 3" xfId="592"/>
-    <cellStyle name="桁区切り 2 2 5" xfId="593"/>
-    <cellStyle name="桁区切り 2 2 4" xfId="594"/>
-    <cellStyle name="Normal 14 3 3" xfId="595"/>
-    <cellStyle name="桁区切り 2 2 3 2" xfId="596"/>
-    <cellStyle name="標準 3 3 7" xfId="597"/>
-    <cellStyle name="標準 3 3 6 4 3" xfId="598"/>
-    <cellStyle name="桁区切り 2 2 2" xfId="599"/>
-    <cellStyle name="60% - アクセント 6 2 2" xfId="600"/>
-    <cellStyle name="桁区切り 2" xfId="601"/>
-    <cellStyle name="CExplanatory Text" xfId="602" builtinId="53"/>
-    <cellStyle name="桁区切り [0.0]" xfId="603"/>
-    <cellStyle name="桁区切り 2 6 3" xfId="604"/>
-    <cellStyle name="悪い 3" xfId="605"/>
-    <cellStyle name="悪い 2 3" xfId="606"/>
-    <cellStyle name="標準 2 2 2 4 4" xfId="607"/>
-    <cellStyle name="ハイパーリンク 2 2 3" xfId="608"/>
-    <cellStyle name="SAPBEXexcVeryBad" xfId="609"/>
-    <cellStyle name="ハイパーリンク 2 2 2" xfId="610"/>
-    <cellStyle name="標準 2 2 2 4 3" xfId="611"/>
-    <cellStyle name="悪い 2 2 2" xfId="612"/>
-    <cellStyle name="標準 2 2 3 5" xfId="613"/>
-    <cellStyle name="20% - アクセント 1 3" xfId="614"/>
-    <cellStyle name="Normal 18 2 3" xfId="615"/>
-    <cellStyle name="桁区切り 2 6 2 2" xfId="616"/>
-    <cellStyle name="悪い 2 2" xfId="617"/>
-    <cellStyle name="外付テーブル" xfId="618"/>
-    <cellStyle name="Normal 13 2" xfId="619"/>
-    <cellStyle name="出力 2 2" xfId="620"/>
-    <cellStyle name="標準 2 2 17" xfId="621"/>
-    <cellStyle name="SAPBEXsubItem" xfId="622"/>
-    <cellStyle name="見出し 4 2 2" xfId="623"/>
-    <cellStyle name="標準 3 3 6 4 2" xfId="624"/>
-    <cellStyle name="入力 3" xfId="625"/>
-    <cellStyle name="入力 2" xfId="626"/>
-    <cellStyle name="アクセント 5 2 2" xfId="627"/>
-    <cellStyle name="通貨 2 5 2 2" xfId="628"/>
-    <cellStyle name="標準 3 11" xfId="629"/>
-    <cellStyle name="上詰め＋折返し 3" xfId="630"/>
-    <cellStyle name="メモ 3" xfId="631"/>
-    <cellStyle name="標準 3 10" xfId="632"/>
-    <cellStyle name="上詰め＋折返し 2" xfId="633"/>
-    <cellStyle name="標準 10 3" xfId="634"/>
-    <cellStyle name="40% - アクセント 3 3" xfId="635"/>
-    <cellStyle name="標準 3 4 2 3" xfId="636"/>
-    <cellStyle name="ハイパーリンク 3 2 2" xfId="637"/>
-    <cellStyle name="標準 2 3 3" xfId="638"/>
-    <cellStyle name="標準 2 8 2 2 3" xfId="639"/>
-    <cellStyle name="未定義" xfId="640"/>
-    <cellStyle name="ハイパーリンク 3 2" xfId="641"/>
-    <cellStyle name="ハイパーリンク 3" xfId="642"/>
-    <cellStyle name="ハイパーリンク 2 9" xfId="643"/>
-    <cellStyle name="桁区切り 2 2 4 2" xfId="644"/>
-    <cellStyle name="標準 5 6 2 2 2" xfId="645"/>
-    <cellStyle name="どちらでもない 2 2" xfId="646"/>
-    <cellStyle name="ハイパーリンク 2 8" xfId="647"/>
-    <cellStyle name="ハイパーリンク 2 7" xfId="648"/>
-    <cellStyle name="ハイパーリンク 2 6" xfId="649"/>
-    <cellStyle name="チェック セル 3" xfId="650"/>
-    <cellStyle name="ハイパーリンク 2 5" xfId="651"/>
-    <cellStyle name="ハイパーリンク 2 11" xfId="652"/>
-    <cellStyle name="標準 2 2 2 18" xfId="653"/>
-    <cellStyle name="アクセント 6 2" xfId="654"/>
-    <cellStyle name="見出し 1 2" xfId="655"/>
-    <cellStyle name="標準 2 2 2" xfId="656"/>
-    <cellStyle name="Normal 2 8 2" xfId="657"/>
-    <cellStyle name="標準 5 6 2 3" xfId="658"/>
-    <cellStyle name="標準 8 13" xfId="659"/>
-    <cellStyle name="どちらでもない 3" xfId="660"/>
-    <cellStyle name="標準 2 2 2 4" xfId="661"/>
-    <cellStyle name="チェック セル 2 2" xfId="662"/>
-    <cellStyle name="ハイパーリンク 2 4 2" xfId="663"/>
-    <cellStyle name="タイトル 3" xfId="664"/>
-    <cellStyle name="標準 3 7 2 2" xfId="665"/>
-    <cellStyle name="標準 2 2 2 19" xfId="666"/>
-    <cellStyle name="アクセント 6 3" xfId="667"/>
-    <cellStyle name="見出し 1 3" xfId="668"/>
-    <cellStyle name="アクセント 3 2" xfId="669"/>
-    <cellStyle name="Normal 2 8 3" xfId="670"/>
-    <cellStyle name="通貨 2 3 2" xfId="671"/>
-    <cellStyle name="標準 2 2 3" xfId="672"/>
-    <cellStyle name="通貨 2 2 2" xfId="673"/>
-    <cellStyle name="Normal 2 13 2" xfId="674"/>
-    <cellStyle name="アクセント 2 2" xfId="675"/>
-    <cellStyle name="Normal 2 7 3" xfId="676"/>
-    <cellStyle name="アクセント 5 3" xfId="677"/>
-    <cellStyle name="通貨 2 5 3" xfId="678"/>
-    <cellStyle name="標準 2 3 5 4 3" xfId="679"/>
-    <cellStyle name="ハイパーリンク 2" xfId="680"/>
-    <cellStyle name="Normal 2 6 2 2" xfId="681"/>
-    <cellStyle name="アクセント 4 2 2" xfId="682"/>
-    <cellStyle name="通貨 2 3 3" xfId="683"/>
-    <cellStyle name="標準 82 2" xfId="684"/>
-    <cellStyle name="アクセント 3 3" xfId="685"/>
-    <cellStyle name="20% - アクセント 3 3" xfId="686"/>
-    <cellStyle name="title 5" xfId="687"/>
-    <cellStyle name="アクセント 3 2 2" xfId="688"/>
-    <cellStyle name="標準 2 2 3 6" xfId="689"/>
-    <cellStyle name="悪い 2 2 3" xfId="690"/>
-    <cellStyle name="アクセント 2 3" xfId="691"/>
-    <cellStyle name="Normal 2 13 3" xfId="692"/>
-    <cellStyle name="標準 81 2" xfId="693"/>
-    <cellStyle name="Calculation" xfId="694" builtinId="22"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="695"/>
-    <cellStyle name="アクセント 1 2 2" xfId="696"/>
-    <cellStyle name="Normal 7 3" xfId="697"/>
-    <cellStyle name="標準 2 2 9 4 2" xfId="698"/>
-    <cellStyle name="Normal 2 3" xfId="699"/>
-    <cellStyle name="Normal 2 6 3" xfId="700"/>
-    <cellStyle name="Normal 2 12 2" xfId="701"/>
-    <cellStyle name="アクセント 1 2" xfId="702"/>
-    <cellStyle name="標準 7 6 2 2 2" xfId="703"/>
-    <cellStyle name="標準 74" xfId="704"/>
-    <cellStyle name="標準 69" xfId="705"/>
-    <cellStyle name="umeda" xfId="706"/>
-    <cellStyle name="title 6" xfId="707"/>
-    <cellStyle name="title 4" xfId="708"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="709"/>
-    <cellStyle name="title 3" xfId="710"/>
-    <cellStyle name="section" xfId="711"/>
-    <cellStyle name="標準 3 7 3 2" xfId="712"/>
-    <cellStyle name="Normal 2 6 2 3" xfId="713"/>
-    <cellStyle name="SAPBEXstdData" xfId="714"/>
-    <cellStyle name="標準 8 8" xfId="715"/>
-    <cellStyle name="Normal 4" xfId="716"/>
-    <cellStyle name="Percent [2]" xfId="717"/>
-    <cellStyle name="標準 2 4 7" xfId="718"/>
-    <cellStyle name="標準 118 4" xfId="719"/>
-    <cellStyle name="SAPBEXheaderText" xfId="720"/>
-    <cellStyle name="標準 16 2 3" xfId="721"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="722"/>
-    <cellStyle name="60% - アクセント 4 3" xfId="723"/>
-    <cellStyle name="標準 5 3 3" xfId="724"/>
-    <cellStyle name="標準 131" xfId="725"/>
-    <cellStyle name="標準 126" xfId="726"/>
-    <cellStyle name="SAPBEXheaderData" xfId="727"/>
-    <cellStyle name="標準 5 2 2 2 2" xfId="728"/>
-    <cellStyle name="標準 2 9 2" xfId="729"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="730"/>
-    <cellStyle name="標準 3 3 2" xfId="731"/>
-    <cellStyle name="Grey" xfId="732"/>
-    <cellStyle name="ハイパーリンク 2 4 3" xfId="733"/>
-    <cellStyle name="Normal 13" xfId="734"/>
-    <cellStyle name="出力 2" xfId="735"/>
-    <cellStyle name="Normal 12 2" xfId="736"/>
-    <cellStyle name="標準 15" xfId="737"/>
-    <cellStyle name="標準 20" xfId="738"/>
-    <cellStyle name="40% - アクセント 2 2 2" xfId="739"/>
-    <cellStyle name="PSChar" xfId="740"/>
-    <cellStyle name="標準 3 2 2 6" xfId="741"/>
-    <cellStyle name="Normal 2 2 2 6" xfId="742"/>
-    <cellStyle name="標準 6 3 4" xfId="743"/>
-    <cellStyle name="SAPBEXundefined" xfId="744"/>
-    <cellStyle name="40% - アクセント 1 3" xfId="745"/>
-    <cellStyle name="標準 5 2 6 2" xfId="746"/>
-    <cellStyle name="Normal 8 3 2" xfId="747"/>
-    <cellStyle name="標準 6 9" xfId="748"/>
-    <cellStyle name="Normal 8 2" xfId="749"/>
-    <cellStyle name="標準 5 2 5" xfId="750"/>
-    <cellStyle name="Normal 19 2 2" xfId="751"/>
-    <cellStyle name="0301" xfId="752"/>
-    <cellStyle name="60% - Accent1" xfId="753" builtinId="32"/>
-    <cellStyle name="アクセント 6 2 2" xfId="754"/>
-    <cellStyle name="見出し 1 2 2" xfId="755"/>
-    <cellStyle name="Normal 7" xfId="756"/>
-    <cellStyle name="Normal 6" xfId="757"/>
-    <cellStyle name="標準 2 2 12 2" xfId="758"/>
-    <cellStyle name="Normal 5" xfId="759"/>
-    <cellStyle name="Normal 3 7 2" xfId="760"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="761"/>
-    <cellStyle name="標準 5 2 2" xfId="762"/>
-    <cellStyle name="subhead" xfId="763"/>
-    <cellStyle name="Normal 3 7" xfId="764"/>
-    <cellStyle name="Normal 16" xfId="765"/>
-    <cellStyle name="Normal 21" xfId="766"/>
-    <cellStyle name="per.style" xfId="767"/>
-    <cellStyle name="Normal 3 4" xfId="768"/>
-    <cellStyle name="Normal 3 3" xfId="769"/>
-    <cellStyle name="Normal 3 2" xfId="770"/>
-    <cellStyle name="Normal 3" xfId="771"/>
-    <cellStyle name="標準_機能設計書（月次処理）" xfId="772"/>
-    <cellStyle name="標準 2 4 9" xfId="773"/>
-    <cellStyle name="ハイパーリンク 2 4" xfId="774"/>
-    <cellStyle name="チェック セル 2" xfId="775"/>
-    <cellStyle name="Normal 20 2 2" xfId="776"/>
-    <cellStyle name="Normal 2 9 2" xfId="777"/>
-    <cellStyle name="Normal 2 9 3" xfId="778"/>
-    <cellStyle name="アクセント 4 2" xfId="779"/>
-    <cellStyle name="Normal 2 6 2" xfId="780"/>
-    <cellStyle name="ハイパーリンク 3 3 3" xfId="781"/>
-    <cellStyle name="標準 2 2 9 4 3" xfId="782"/>
-    <cellStyle name="Normal 2 4" xfId="783"/>
-    <cellStyle name="Normal 2 6" xfId="784"/>
-    <cellStyle name="標準 3 3 6" xfId="785"/>
-    <cellStyle name="Normal 2 2 9" xfId="786"/>
-    <cellStyle name="60% - アクセント 1 3" xfId="787"/>
-    <cellStyle name="Normal 2 2 8" xfId="788"/>
-    <cellStyle name="標準 3 3 5" xfId="789"/>
-    <cellStyle name="標準 3 3 3" xfId="790"/>
-    <cellStyle name="Normal 2 2 6" xfId="791"/>
-    <cellStyle name="標準 33" xfId="792"/>
-    <cellStyle name="標準 28" xfId="793"/>
-    <cellStyle name="Normal 2 2 4" xfId="794"/>
-    <cellStyle name="標準 5 2 2 4 2" xfId="795"/>
-    <cellStyle name="標準 8 8 2 2" xfId="796"/>
-    <cellStyle name="標準 9 3 2" xfId="797"/>
-    <cellStyle name="revised" xfId="798"/>
-    <cellStyle name="Normal 13 4 2" xfId="799"/>
-    <cellStyle name="Normal 2 2 2 8" xfId="800"/>
-    <cellStyle name="ハイパーリンク 3 4" xfId="801"/>
-    <cellStyle name="標準 2 5 4" xfId="802"/>
-    <cellStyle name="標準 4 3 2 2" xfId="803"/>
-    <cellStyle name="ハイパーリンク 3 3" xfId="804"/>
-    <cellStyle name="Normal 2 2 2 7 2" xfId="805"/>
-    <cellStyle name="標準 10 4" xfId="806"/>
-    <cellStyle name="標準 4 2 2 2" xfId="807"/>
-    <cellStyle name="Normal 2 2 2 7" xfId="808"/>
-    <cellStyle name="標準 6 3 5" xfId="809"/>
-    <cellStyle name="Normal 17 2 3" xfId="810"/>
-    <cellStyle name="ハイパーリンク 2 8 2 2 2" xfId="811"/>
-    <cellStyle name="60% - アクセント 6 3" xfId="812"/>
-    <cellStyle name="標準 12 2 3 2" xfId="813"/>
-    <cellStyle name="Normal 2 2 2 6 3" xfId="814"/>
-    <cellStyle name="BD標準" xfId="815"/>
-    <cellStyle name="20% - アクセント 5 3" xfId="816"/>
-    <cellStyle name="ハイパーリンク 2 3" xfId="817"/>
-    <cellStyle name="標準 9 4 2" xfId="818"/>
-    <cellStyle name="標準 6 3 3" xfId="819"/>
-    <cellStyle name="Normal 2 2 2 5" xfId="820"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="821"/>
-    <cellStyle name="標準 3 4 2 2" xfId="822"/>
-    <cellStyle name="標準 10 2" xfId="823"/>
-    <cellStyle name="Normal - Style1" xfId="824"/>
-    <cellStyle name="Header2 2" xfId="825"/>
-    <cellStyle name="標準 5 3" xfId="826"/>
-    <cellStyle name="Normal 2 2 2 6 2" xfId="827"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="828"/>
-    <cellStyle name="標準 8 7 3" xfId="829"/>
-    <cellStyle name="標準 17" xfId="830"/>
-    <cellStyle name="標準 22" xfId="831"/>
-    <cellStyle name="通貨 2" xfId="832"/>
-    <cellStyle name="標準 7 2 3" xfId="833"/>
-    <cellStyle name="Normal 24" xfId="834"/>
-    <cellStyle name="Normal 19" xfId="835"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="836"/>
-    <cellStyle name="SAPBEXaggData" xfId="837"/>
-    <cellStyle name="SAPBEXexcBad" xfId="838"/>
-    <cellStyle name="40% - アクセント 2 3" xfId="839"/>
-    <cellStyle name="Input [yellow] 2" xfId="840"/>
-    <cellStyle name="Normal 2 11" xfId="841"/>
-    <cellStyle name="Normal 2 2" xfId="842"/>
-    <cellStyle name="ハイパーリンク 2 4 4" xfId="843"/>
-    <cellStyle name="標準 20 2" xfId="844"/>
-    <cellStyle name="標準 15 2" xfId="845"/>
-    <cellStyle name="Normal 14" xfId="846"/>
-    <cellStyle name="出力 3" xfId="847"/>
-    <cellStyle name="Input [yellow]" xfId="848"/>
-    <cellStyle name="Normal 12" xfId="849"/>
-    <cellStyle name="標準 44 2" xfId="850"/>
-    <cellStyle name="40% - アクセント 3 2 2" xfId="851"/>
-    <cellStyle name="標準 125" xfId="852"/>
-    <cellStyle name="標準 130" xfId="853"/>
-    <cellStyle name="パーセント[0.00]" xfId="854"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="855"/>
-    <cellStyle name="標準 5 3 2" xfId="856"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="857"/>
-    <cellStyle name="Normal 2 6_補足説明" xfId="858"/>
-    <cellStyle name="Normal 2 10 3" xfId="859"/>
-    <cellStyle name="Normal 8_Header" xfId="860"/>
-    <cellStyle name="Normal 11" xfId="861"/>
-    <cellStyle name="Normal 2 10 2" xfId="862"/>
-    <cellStyle name="Normal 2 10" xfId="863"/>
-    <cellStyle name="標準 2 4 8" xfId="864"/>
-    <cellStyle name="Normal 2" xfId="865"/>
-    <cellStyle name="リンク セル 2 2" xfId="866"/>
-    <cellStyle name="標準 2 4 5 4" xfId="867"/>
-    <cellStyle name="Normal 23 2 2" xfId="868"/>
-    <cellStyle name="Normal 18 2 2" xfId="869"/>
-    <cellStyle name="Accent1" xfId="870" builtinId="29"/>
-    <cellStyle name="標準 2 2 2 7" xfId="871"/>
-    <cellStyle name="標準 7 2 2 2" xfId="872"/>
-    <cellStyle name="Normal 23 2" xfId="873"/>
-    <cellStyle name="Normal 18 2" xfId="874"/>
-    <cellStyle name="標準 8 16" xfId="875"/>
-    <cellStyle name="標準 122 8" xfId="876"/>
-    <cellStyle name="Normal 15 3 3" xfId="877"/>
-    <cellStyle name="警告文 2" xfId="878"/>
-    <cellStyle name="標準 2 21" xfId="879"/>
-    <cellStyle name="標準 2 16" xfId="880"/>
-    <cellStyle name="60% - アクセント 5 2 2" xfId="881"/>
-    <cellStyle name="Normal 22 2" xfId="882"/>
-    <cellStyle name="Normal 17 2" xfId="883"/>
-    <cellStyle name="Normal 21 2" xfId="884"/>
-    <cellStyle name="Normal 16 2" xfId="885"/>
-    <cellStyle name="標準 113" xfId="886"/>
-    <cellStyle name="標準 108" xfId="887"/>
-    <cellStyle name="Normal 15 3" xfId="888"/>
-    <cellStyle name="20% - アクセント 2 2 2" xfId="889"/>
-    <cellStyle name="Normal 20 2" xfId="890"/>
-    <cellStyle name="Normal 15 2" xfId="891"/>
-    <cellStyle name="standard" xfId="892"/>
-    <cellStyle name="標準 2 4 19" xfId="893"/>
-    <cellStyle name="標準 7 3" xfId="894"/>
-    <cellStyle name="標準 2 7 2 3" xfId="895"/>
-    <cellStyle name="Normal 20" xfId="896"/>
-    <cellStyle name="Normal 15" xfId="897"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="898"/>
-    <cellStyle name="0_x0014_標準_F_02?P_Dd080301" xfId="899"/>
-    <cellStyle name="標準 5 2 5 4" xfId="900"/>
-    <cellStyle name="Normal - Style1 2" xfId="901"/>
-    <cellStyle name="40% - Accent2" xfId="902" builtinId="35"/>
-    <cellStyle name="ハイパーリンク 2 3 2" xfId="903"/>
-    <cellStyle name="Normal 2 13" xfId="904"/>
-    <cellStyle name="標準 17 2" xfId="905"/>
-    <cellStyle name="標準 22 2" xfId="906"/>
-    <cellStyle name="通貨 2 2" xfId="907"/>
-    <cellStyle name="入力 2 2" xfId="908"/>
-    <cellStyle name="Normal 14 3 2" xfId="909"/>
-    <cellStyle name="Normal 13 4" xfId="910"/>
-    <cellStyle name="Normal 11 3" xfId="911"/>
-    <cellStyle name="標準 2 7 2 2" xfId="912"/>
-    <cellStyle name="標準 2 4 18" xfId="913"/>
-    <cellStyle name="標準 7 2" xfId="914"/>
-    <cellStyle name="標準 2 2 2 2" xfId="915"/>
-    <cellStyle name="Normal 3 6" xfId="916"/>
-    <cellStyle name="Normal 10 2 3" xfId="917"/>
-    <cellStyle name="Normal 10 2" xfId="918"/>
-    <cellStyle name="Normal 11 3 2" xfId="919"/>
-    <cellStyle name="Normal 12 4 2" xfId="920"/>
-    <cellStyle name="見出し 4 3" xfId="921"/>
-    <cellStyle name="標準 3 3 6 5" xfId="922"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="923"/>
-    <cellStyle name="SAPBEXstdItem" xfId="924"/>
-    <cellStyle name="桁区切り 2 2 6" xfId="925"/>
-    <cellStyle name="Normal 11 2" xfId="926"/>
-    <cellStyle name="Header2" xfId="927"/>
-    <cellStyle name="標準 2 14" xfId="928"/>
-    <cellStyle name="Normal 12 4" xfId="929"/>
-    <cellStyle name="ハイパーリンク 2 10" xfId="930"/>
-    <cellStyle name="Note" xfId="931" builtinId="10"/>
-    <cellStyle name="SAPBEXsubData" xfId="932"/>
-    <cellStyle name="Percent" xfId="933" builtinId="5"/>
-    <cellStyle name="標準 122 7 5" xfId="934"/>
-    <cellStyle name="標準 23" xfId="935"/>
-    <cellStyle name="標準 18" xfId="936"/>
-    <cellStyle name="標準 16" xfId="937"/>
-    <cellStyle name="標準 21" xfId="938"/>
-    <cellStyle name="標準 8 7 2" xfId="939"/>
-    <cellStyle name="Normal 12 3" xfId="940"/>
-    <cellStyle name="Normal 7 2" xfId="941"/>
-    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9"/>
-    <cellStyle name="標準 122 7 6" xfId="943"/>
-    <cellStyle name="ハイパーリンク 2 5 2" xfId="944"/>
-    <cellStyle name="標準 3 2 2 2 4" xfId="945"/>
-    <cellStyle name="標準 24" xfId="946"/>
-    <cellStyle name="標準 19" xfId="947"/>
-    <cellStyle name="Normal 4 2" xfId="948"/>
-    <cellStyle name="60% - アクセント 3 3" xfId="949"/>
-    <cellStyle name="標準 5 2 3" xfId="950"/>
-    <cellStyle name="60% - Accent5" xfId="951" builtinId="48"/>
-    <cellStyle name="桁区切り 2 2 2 3" xfId="952"/>
-    <cellStyle name="標準 2 13" xfId="953"/>
-    <cellStyle name="Header1" xfId="954"/>
-    <cellStyle name="Normal 2 11 3" xfId="955"/>
-    <cellStyle name="標準 6 3 3 3" xfId="956"/>
-    <cellStyle name="標準 12 2 2 2" xfId="957"/>
-    <cellStyle name="font9 right" xfId="958"/>
-    <cellStyle name="標準 2 2 2 3" xfId="959"/>
-    <cellStyle name="どちらでもない 2" xfId="960"/>
-    <cellStyle name="標準 5 6 2 2" xfId="961"/>
-    <cellStyle name="標準 8 12" xfId="962"/>
-    <cellStyle name="Normal 21 2 2" xfId="963"/>
-    <cellStyle name="Normal 16 2 2" xfId="964"/>
-    <cellStyle name="entry" xfId="965"/>
-    <cellStyle name="桁区切り 2 3 4" xfId="966"/>
-    <cellStyle name="PSHeading" xfId="967"/>
-    <cellStyle name="標準 13" xfId="968"/>
-    <cellStyle name="price" xfId="969"/>
-    <cellStyle name="桁区切り 2 8" xfId="970"/>
-    <cellStyle name="args.style" xfId="971"/>
-    <cellStyle name="Currency [0]" xfId="972" builtinId="7"/>
-    <cellStyle name="標準 70" xfId="973"/>
-    <cellStyle name="標準 65" xfId="974"/>
-    <cellStyle name="標準 5 2 2 3" xfId="975"/>
-    <cellStyle name="標準 122 11" xfId="976"/>
-    <cellStyle name="Total" xfId="977" builtinId="25"/>
-    <cellStyle name="40% - アクセント 1 2 2" xfId="978"/>
-    <cellStyle name="標準 5 2 2 4 3" xfId="979"/>
-    <cellStyle name="標準 8 8 2 3" xfId="980"/>
-    <cellStyle name="Normal 2 2 5" xfId="981"/>
-    <cellStyle name="60% - アクセント 4 2 2" xfId="982"/>
-    <cellStyle name="ハイパーリンク 2 8 2 2 3" xfId="983"/>
-    <cellStyle name="Normal 2 9" xfId="984"/>
-    <cellStyle name="60% - Accent4" xfId="985" builtinId="44"/>
-    <cellStyle name="桁区切り 2 2 2 2" xfId="986"/>
-    <cellStyle name="Normal 2 2 2 4" xfId="987"/>
-    <cellStyle name="標準 6 3 2" xfId="988"/>
-    <cellStyle name="40% - アクセント 4 2 2" xfId="989"/>
-    <cellStyle name="標準 2 2 8" xfId="990"/>
-    <cellStyle name="Calc Currency (0)" xfId="991"/>
-    <cellStyle name="40% - アクセント 6 2 2" xfId="992"/>
-    <cellStyle name="標準 7 6" xfId="993"/>
-    <cellStyle name="20% - アクセント 3 2 2" xfId="994"/>
-    <cellStyle name="桁区切り 2 6" xfId="995"/>
-    <cellStyle name="標準 7 2 2" xfId="996"/>
-    <cellStyle name="Normal 18" xfId="997"/>
-    <cellStyle name="Normal 23" xfId="998"/>
-    <cellStyle name="20% - アクセント 4 3" xfId="999"/>
-    <cellStyle name="20% - アクセント 4 2 2" xfId="1000"/>
-    <cellStyle name="SAPBEXsubDataEmph" xfId="1001"/>
-    <cellStyle name="標準 9 4" xfId="1002"/>
-    <cellStyle name="パーセント(0.00)" xfId="1003"/>
-    <cellStyle name="ハイパーリンク 2 3 4" xfId="1004"/>
-    <cellStyle name="40% - Accent4" xfId="1005" builtinId="43"/>
-    <cellStyle name="良い 3" xfId="1006"/>
-    <cellStyle name="20% - Accent1" xfId="1007" builtinId="30"/>
-    <cellStyle name="標準 23 2" xfId="1008"/>
-    <cellStyle name="標準 18 2" xfId="1009"/>
-    <cellStyle name="20% - Accent5" xfId="1010" builtinId="46"/>
-    <cellStyle name="標準 5 2 6 3 3" xfId="1011"/>
-    <cellStyle name="20% - アクセント 6 2 2" xfId="1012"/>
-    <cellStyle name="60% - Accent3" xfId="1013" builtinId="40"/>
-    <cellStyle name="Normal 2 11 2" xfId="1014"/>
-    <cellStyle name="標準 6 2" xfId="1015"/>
-    <cellStyle name="パーセント()" xfId="1016"/>
-    <cellStyle name="Normal 2 5" xfId="1017"/>
-    <cellStyle name="Normal 22 2 2" xfId="1018"/>
-    <cellStyle name="Normal 17 2 2" xfId="1019"/>
-    <cellStyle name="標準 3 2" xfId="1020"/>
-    <cellStyle name="標準 97" xfId="1021"/>
-    <cellStyle name="Normal 2 15" xfId="1022"/>
-    <cellStyle name="通貨 2 4" xfId="1023"/>
-    <cellStyle name="標準 14 2" xfId="1024"/>
-    <cellStyle name="標準 3 3 6 6" xfId="1025"/>
-    <cellStyle name="Normal 12 4 3" xfId="1026"/>
-    <cellStyle name="標準 18 4" xfId="1027"/>
-    <cellStyle name="40% - Accent6" xfId="1028" builtinId="51"/>
-    <cellStyle name="20% - Accent3" xfId="1029" builtinId="38"/>
-    <cellStyle name="アクセント 4 3" xfId="1030"/>
-    <cellStyle name="60% - アクセント 2 3" xfId="1031"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="1032"/>
-    <cellStyle name="Normal 3 8" xfId="1033"/>
-    <cellStyle name="標準 3 3 4" xfId="1034"/>
-    <cellStyle name="標準 2 8 3" xfId="1035"/>
-    <cellStyle name="タイトル 2 2" xfId="1036"/>
-    <cellStyle name="20% - Accent2" xfId="1037" builtinId="34"/>
-    <cellStyle name="40% - Accent5" xfId="1038" builtinId="47"/>
-    <cellStyle name="標準 18 3" xfId="1039"/>
-    <cellStyle name="IBM(401K)" xfId="1040"/>
-    <cellStyle name="標準 2 2 11 2" xfId="1041"/>
-    <cellStyle name="標準 7 6 3" xfId="1042"/>
-    <cellStyle name="標準 122 6" xfId="1043"/>
-    <cellStyle name="ハイパーリンク 2 9 2 2" xfId="1044"/>
-    <cellStyle name="標準 10" xfId="1045"/>
-    <cellStyle name="標準 3 4 2" xfId="1046"/>
-    <cellStyle name="60% - Accent6" xfId="1047" builtinId="52"/>
-    <cellStyle name="標準 39" xfId="1048"/>
-    <cellStyle name="標準 44" xfId="1049"/>
-    <cellStyle name="SAPBEXexcGood" xfId="1050"/>
-    <cellStyle name="標準 2 2 2 9" xfId="1051"/>
-    <cellStyle name="40% - アクセント 6 3" xfId="1052"/>
-    <cellStyle name="Accent3" xfId="1053" builtinId="37"/>
-    <cellStyle name="上詰め＋折返し" xfId="1054"/>
-    <cellStyle name="Normal 10" xfId="1055"/>
-    <cellStyle name="Warning Text" xfId="1056" builtinId="11"/>
-    <cellStyle name="標準 135" xfId="1057"/>
-    <cellStyle name="Normal 2 2 3" xfId="1058"/>
-    <cellStyle name="Neutral" xfId="1059" builtinId="28"/>
-    <cellStyle name="Normal 14 3" xfId="1060"/>
-    <cellStyle name="ハイパーリンク 5" xfId="1061"/>
-    <cellStyle name="Normal 2_Header" xfId="1062"/>
-    <cellStyle name="標準 2 2 11" xfId="1063"/>
-    <cellStyle name="Normal 13 3" xfId="1064"/>
-    <cellStyle name="Normal 2 2 2" xfId="1065"/>
-    <cellStyle name="Check Cell" xfId="1066" builtinId="23"/>
-    <cellStyle name="標準 2 2 2 6" xfId="1067"/>
-    <cellStyle name="Currency" xfId="1068" builtinId="4"/>
-    <cellStyle name="Normal 2 12" xfId="1069"/>
-    <cellStyle name="Normal 10 2 2" xfId="1070"/>
-    <cellStyle name="標準 5 2 7" xfId="1071"/>
-    <cellStyle name="標準 34" xfId="1072"/>
-    <cellStyle name="標準 29" xfId="1073"/>
-    <cellStyle name="Normal 3 5" xfId="1074"/>
-    <cellStyle name="桁区切り 2 2 3 2 2" xfId="1075"/>
-    <cellStyle name="Normal 2 8" xfId="1076"/>
-    <cellStyle name="標準 47" xfId="1077"/>
-    <cellStyle name="標準 52" xfId="1078"/>
-    <cellStyle name="標準 2 2" xfId="1079"/>
-    <cellStyle name="20% - アクセント 6 3" xfId="1080"/>
-    <cellStyle name="ハイパーリンク 2 2" xfId="1081"/>
-    <cellStyle name="標準 118" xfId="1082"/>
-    <cellStyle name="標準 123" xfId="1083"/>
-    <cellStyle name="20% - アクセント 2 3" xfId="1084"/>
-    <cellStyle name="J401K" xfId="1085"/>
-    <cellStyle name="Accent6" xfId="1086" builtinId="49"/>
-    <cellStyle name="桁区切り 2 2 2 2 2" xfId="1087"/>
-    <cellStyle name="標準 2 2 2 8" xfId="1088"/>
-    <cellStyle name="SAPBEXresData" xfId="1089"/>
-    <cellStyle name="Accent5" xfId="1090" builtinId="45"/>
-    <cellStyle name="Normal 3_Header" xfId="1091"/>
-    <cellStyle name="Normal 8" xfId="1092"/>
-    <cellStyle name="60% - Accent2" xfId="1093" builtinId="36"/>
-    <cellStyle name="ハイパーリンク 3 3 2 2 3" xfId="1094"/>
-    <cellStyle name="FONT9" xfId="1095"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="1096"/>
-    <cellStyle name="Accent4" xfId="1097" builtinId="41"/>
-    <cellStyle name="60% - アクセント 5 3" xfId="1098"/>
-    <cellStyle name="Linked Cell" xfId="1099" builtinId="24"/>
-    <cellStyle name="Comma" xfId="1100" builtinId="3"/>
-    <cellStyle name="標準 2 4 17" xfId="1101"/>
-    <cellStyle name="Normal 22" xfId="1102"/>
-    <cellStyle name="Normal 17" xfId="1103"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="1104"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="1105"/>
-    <cellStyle name="Bad" xfId="1106" builtinId="27"/>
-    <cellStyle name="標準 3 7 3" xfId="1107"/>
-    <cellStyle name="標準 3 6 4 3" xfId="1108"/>
-    <cellStyle name="標準 101" xfId="1109"/>
-    <cellStyle name="Normal 11_Header" xfId="1110"/>
-    <cellStyle name="標準 2 3 5 4 2" xfId="1111"/>
-    <cellStyle name="20% - Accent6" xfId="1112" builtinId="50"/>
-    <cellStyle name="標準 31" xfId="1113"/>
-    <cellStyle name="標準 26" xfId="1114"/>
-    <cellStyle name="title 2" xfId="1115"/>
-    <cellStyle name="20% - アクセント 5 2 2" xfId="1116"/>
-    <cellStyle name="20% - Accent4" xfId="1117" builtinId="42"/>
-    <cellStyle name="標準 122 11 2" xfId="1118"/>
-    <cellStyle name="Heading 4" xfId="1119" builtinId="19"/>
-    <cellStyle name="標準 3 6 2 3 3" xfId="1120"/>
-    <cellStyle name="Input" xfId="1121" builtinId="20"/>
-    <cellStyle name="Good" xfId="1122" builtinId="26"/>
-    <cellStyle name="Normal 15 3 2" xfId="1123"/>
-    <cellStyle name="標準 6 2 4" xfId="1124"/>
-    <cellStyle name="Heading 3" xfId="1125" builtinId="18"/>
-    <cellStyle name="標準 2 7 3" xfId="1126"/>
-    <cellStyle name="標準 6 2 2" xfId="1127"/>
-    <cellStyle name="Heading 1" xfId="1128" builtinId="16"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="1129"/>
-    <cellStyle name="標準 6 2 3" xfId="1130"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="1"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="2"/>
+    <cellStyle name="標準 2 7 3" xfId="3"/>
+    <cellStyle name="Normal 15 3 2" xfId="4"/>
+    <cellStyle name="標準 122 11 2" xfId="5"/>
+    <cellStyle name="title 2" xfId="6"/>
+    <cellStyle name="標準 26" xfId="7"/>
+    <cellStyle name="標準 31" xfId="8"/>
+    <cellStyle name="Normal 11_Header" xfId="9"/>
+    <cellStyle name="標準 101" xfId="10"/>
+    <cellStyle name="標準 3 6 4 3" xfId="11"/>
+    <cellStyle name="標準 3 7 3" xfId="12"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="13"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="14"/>
+    <cellStyle name="Normal 17" xfId="15"/>
+    <cellStyle name="Normal 22" xfId="16"/>
+    <cellStyle name="標準 2 4 17" xfId="17"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="18"/>
+    <cellStyle name="FONT9" xfId="19"/>
+    <cellStyle name="ハイパーリンク 3 3 2 2 3" xfId="20"/>
+    <cellStyle name="Normal 8" xfId="21"/>
+    <cellStyle name="Normal 3_Header" xfId="22"/>
+    <cellStyle name="SAPBEXresData" xfId="23"/>
+    <cellStyle name="標準 2 2 2 8" xfId="24"/>
+    <cellStyle name="桁区切り 2 2 2 2 2" xfId="25"/>
+    <cellStyle name="J401K" xfId="26"/>
+    <cellStyle name="20% - アクセント 2 3" xfId="27"/>
+    <cellStyle name="標準 123" xfId="28"/>
+    <cellStyle name="標準 118" xfId="29"/>
+    <cellStyle name="ハイパーリンク 2 2" xfId="30"/>
+    <cellStyle name="20% - アクセント 6 3" xfId="31"/>
+    <cellStyle name="標準 2 2" xfId="32"/>
+    <cellStyle name="標準 52" xfId="33"/>
+    <cellStyle name="標準 47" xfId="34"/>
+    <cellStyle name="Normal 2 8" xfId="35"/>
+    <cellStyle name="桁区切り 2 2 3 2 2" xfId="36"/>
+    <cellStyle name="Normal 3 5" xfId="37"/>
+    <cellStyle name="標準 29" xfId="38"/>
+    <cellStyle name="標準 34" xfId="39"/>
+    <cellStyle name="標準 5 2 7" xfId="40"/>
+    <cellStyle name="Normal 10 2 2" xfId="41"/>
+    <cellStyle name="Normal 2 12" xfId="42"/>
+    <cellStyle name="標準 2 2 2 6" xfId="43"/>
+    <cellStyle name="Normal 2 2 2" xfId="44"/>
+    <cellStyle name="Normal 13 3" xfId="45"/>
+    <cellStyle name="標準 2 2 11" xfId="46"/>
+    <cellStyle name="Normal 2_Header" xfId="47"/>
+    <cellStyle name="ハイパーリンク 5" xfId="48"/>
+    <cellStyle name="Normal 14 3" xfId="49"/>
+    <cellStyle name="Normal 2 2 3" xfId="50"/>
+    <cellStyle name="標準 135" xfId="51"/>
+    <cellStyle name="Normal 10" xfId="52"/>
+    <cellStyle name="上詰め＋折返し" xfId="53"/>
+    <cellStyle name="標準 2 2 2 9" xfId="54"/>
+    <cellStyle name="SAPBEXexcGood" xfId="55"/>
+    <cellStyle name="標準 44" xfId="56"/>
+    <cellStyle name="標準 39" xfId="57"/>
+    <cellStyle name="標準 122 6" xfId="58"/>
+    <cellStyle name="標準 7 6 3" xfId="59"/>
+    <cellStyle name="標準 2 2 11 2" xfId="60"/>
+    <cellStyle name="IBM(401K)" xfId="61"/>
+    <cellStyle name="標準 18 3" xfId="62"/>
+    <cellStyle name="タイトル 2 2" xfId="63"/>
+    <cellStyle name="標準 2 8 3" xfId="64"/>
+    <cellStyle name="標準 3 3 4" xfId="65"/>
+    <cellStyle name="Normal 3 8" xfId="66"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="67"/>
+    <cellStyle name="60% - アクセント 2 3" xfId="68"/>
+    <cellStyle name="アクセント 4 3" xfId="69"/>
+    <cellStyle name="標準 18 4" xfId="70"/>
+    <cellStyle name="Normal 12 4 3" xfId="71"/>
+    <cellStyle name="標準 3 3 6 6" xfId="72"/>
+    <cellStyle name="標準 14 2" xfId="73"/>
+    <cellStyle name="通貨 2 4" xfId="74"/>
+    <cellStyle name="Normal 2 15" xfId="75"/>
+    <cellStyle name="標準 97" xfId="76"/>
+    <cellStyle name="標準 3 2" xfId="77"/>
+    <cellStyle name="Normal 17 2 2" xfId="78"/>
+    <cellStyle name="Normal 22 2 2" xfId="79"/>
+    <cellStyle name="Normal 2 5" xfId="80"/>
+    <cellStyle name="パーセント()" xfId="81"/>
+    <cellStyle name="標準 6 2" xfId="82"/>
+    <cellStyle name="Normal 2 11 2" xfId="83"/>
+    <cellStyle name="20% - アクセント 6 2 2" xfId="84"/>
+    <cellStyle name="標準 5 2 6 3 3" xfId="85"/>
+    <cellStyle name="標準 18 2" xfId="86"/>
+    <cellStyle name="標準 23 2" xfId="87"/>
+    <cellStyle name="標準 9 4" xfId="88"/>
+    <cellStyle name="SAPBEXsubDataEmph" xfId="89"/>
+    <cellStyle name="20% - アクセント 4 2 2" xfId="90"/>
+    <cellStyle name="20% - アクセント 4 3" xfId="91"/>
+    <cellStyle name="Normal 23" xfId="92"/>
+    <cellStyle name="Normal 18" xfId="93"/>
+    <cellStyle name="標準 7 2 2" xfId="94"/>
+    <cellStyle name="桁区切り 2 6" xfId="95"/>
+    <cellStyle name="20% - アクセント 3 2 2" xfId="96"/>
+    <cellStyle name="標準 7 6" xfId="97"/>
+    <cellStyle name="40% - アクセント 6 2 2" xfId="98"/>
+    <cellStyle name="Calc Currency (0)" xfId="99"/>
+    <cellStyle name="標準 2 2 8" xfId="100"/>
+    <cellStyle name="40% - アクセント 4 2 2" xfId="101"/>
+    <cellStyle name="標準 6 3 2" xfId="102"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="103"/>
+    <cellStyle name="桁区切り 2 2 2 2" xfId="104"/>
+    <cellStyle name="Normal 2 9" xfId="105"/>
+    <cellStyle name="ハイパーリンク 2 8 2 2 3" xfId="106"/>
+    <cellStyle name="60% - アクセント 4 2 2" xfId="107"/>
+    <cellStyle name="Normal 2 2 5" xfId="108"/>
+    <cellStyle name="標準 8 8 2 3" xfId="109"/>
+    <cellStyle name="標準 5 2 2 4 3" xfId="110"/>
+    <cellStyle name="40% - アクセント 1 2 2" xfId="111"/>
+    <cellStyle name="args.style" xfId="112"/>
+    <cellStyle name="桁区切り 2 8" xfId="113"/>
+    <cellStyle name="price" xfId="114"/>
+    <cellStyle name="標準 13" xfId="115"/>
+    <cellStyle name="PSHeading" xfId="116"/>
+    <cellStyle name="桁区切り 2 3 4" xfId="117"/>
+    <cellStyle name="entry" xfId="118"/>
+    <cellStyle name="Normal 16 2 2" xfId="119"/>
+    <cellStyle name="Normal 21 2 2" xfId="120"/>
+    <cellStyle name="標準 8 12" xfId="121"/>
+    <cellStyle name="標準 5 6 2 2" xfId="122"/>
+    <cellStyle name="どちらでもない 2" xfId="123"/>
+    <cellStyle name="標準 2 2 2 3" xfId="124"/>
+    <cellStyle name="font9 right" xfId="125"/>
+    <cellStyle name="標準 12 2 2 2" xfId="126"/>
+    <cellStyle name="標準 6 3 3 3" xfId="127"/>
+    <cellStyle name="Normal 2 11 3" xfId="128"/>
+    <cellStyle name="Header1" xfId="129"/>
+    <cellStyle name="標準 2 13" xfId="130"/>
+    <cellStyle name="桁区切り 2 2 2 3" xfId="131"/>
+    <cellStyle name="標準 5 2 3" xfId="132"/>
+    <cellStyle name="60% - アクセント 3 3" xfId="133"/>
+    <cellStyle name="Normal 4 2" xfId="134"/>
+    <cellStyle name="標準 19" xfId="135"/>
+    <cellStyle name="標準 24" xfId="136"/>
+    <cellStyle name="標準 3 2 2 2 4" xfId="137"/>
+    <cellStyle name="ハイパーリンク 2 5 2" xfId="138"/>
+    <cellStyle name="標準 122 7 6" xfId="139"/>
+    <cellStyle name="Normal 7 2" xfId="140"/>
+    <cellStyle name="Normal 12 3" xfId="141"/>
+    <cellStyle name="標準 8 7 2" xfId="142"/>
+    <cellStyle name="標準 21" xfId="143"/>
+    <cellStyle name="標準 16" xfId="144"/>
+    <cellStyle name="標準 18" xfId="145"/>
+    <cellStyle name="標準 23" xfId="146"/>
+    <cellStyle name="標準 122 7 5" xfId="147"/>
+    <cellStyle name="SAPBEXsubData" xfId="148"/>
+    <cellStyle name="ハイパーリンク 2 10" xfId="149"/>
+    <cellStyle name="Normal 12 4" xfId="150"/>
+    <cellStyle name="標準 2 14" xfId="151"/>
+    <cellStyle name="Header2" xfId="152"/>
+    <cellStyle name="Normal 11 2" xfId="153"/>
+    <cellStyle name="桁区切り 2 2 6" xfId="154"/>
+    <cellStyle name="SAPBEXstdItem" xfId="155"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="156"/>
+    <cellStyle name="標準 3 3 6 5" xfId="157"/>
+    <cellStyle name="見出し 4 3" xfId="158"/>
+    <cellStyle name="Normal 12 4 2" xfId="159"/>
+    <cellStyle name="Normal 11 3 2" xfId="160"/>
+    <cellStyle name="Normal 10 2" xfId="161"/>
+    <cellStyle name="Normal 10 2 3" xfId="162"/>
+    <cellStyle name="Normal 3 6" xfId="163"/>
+    <cellStyle name="標準 2 2 2 2" xfId="164"/>
+    <cellStyle name="標準 7 2" xfId="165"/>
+    <cellStyle name="標準 2 4 18" xfId="166"/>
+    <cellStyle name="標準 2 7 2 2" xfId="167"/>
+    <cellStyle name="Normal 11 3" xfId="168"/>
+    <cellStyle name="Normal 13 4" xfId="169"/>
+    <cellStyle name="Normal 14 3 2" xfId="170"/>
+    <cellStyle name="入力 2 2" xfId="171"/>
+    <cellStyle name="通貨 2 2" xfId="172"/>
+    <cellStyle name="標準 22 2" xfId="173"/>
+    <cellStyle name="標準 17 2" xfId="174"/>
+    <cellStyle name="Normal 2 13" xfId="175"/>
+    <cellStyle name="Normal - Style1 2" xfId="176"/>
+    <cellStyle name="標準 5 2 5 4" xfId="177"/>
+    <cellStyle name="0_x0014_標準_F_02?P_Dd080301" xfId="178"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="179"/>
+    <cellStyle name="Normal 15" xfId="180"/>
+    <cellStyle name="Normal 20" xfId="181"/>
+    <cellStyle name="標準 2 7 2 3" xfId="182"/>
+    <cellStyle name="標準 7 3" xfId="183"/>
+    <cellStyle name="標準 2 4 19" xfId="184"/>
+    <cellStyle name="standard" xfId="185"/>
+    <cellStyle name="Normal 15 2" xfId="186"/>
+    <cellStyle name="Normal 20 2" xfId="187"/>
+    <cellStyle name="20% - アクセント 2 2 2" xfId="188"/>
+    <cellStyle name="Normal 15 3" xfId="189"/>
+    <cellStyle name="標準 108" xfId="190"/>
+    <cellStyle name="標準 113" xfId="191"/>
+    <cellStyle name="Normal 16 2" xfId="192"/>
+    <cellStyle name="Normal 21 2" xfId="193"/>
+    <cellStyle name="Normal 17 2" xfId="194"/>
+    <cellStyle name="Normal 22 2" xfId="195"/>
+    <cellStyle name="60% - アクセント 5 2 2" xfId="196"/>
+    <cellStyle name="標準 2 16" xfId="197"/>
+    <cellStyle name="標準 2 21" xfId="198"/>
+    <cellStyle name="警告文 2" xfId="199"/>
+    <cellStyle name="Normal 15 3 3" xfId="200"/>
+    <cellStyle name="標準 122 8" xfId="201"/>
+    <cellStyle name="標準 8 16" xfId="202"/>
+    <cellStyle name="Normal 18 2" xfId="203"/>
+    <cellStyle name="Normal 23 2" xfId="204"/>
+    <cellStyle name="標準 7 2 2 2" xfId="205"/>
+    <cellStyle name="標準 2 2 2 7" xfId="206"/>
+    <cellStyle name="Normal 18 2 2" xfId="207"/>
+    <cellStyle name="Normal 23 2 2" xfId="208"/>
+    <cellStyle name="標準 2 4 5 4" xfId="209"/>
+    <cellStyle name="リンク セル 2 2" xfId="210"/>
+    <cellStyle name="Normal 2" xfId="211"/>
+    <cellStyle name="標準 2 4 8" xfId="212"/>
+    <cellStyle name="Normal 2 10" xfId="213"/>
+    <cellStyle name="Normal 2 10 2" xfId="214"/>
+    <cellStyle name="Normal 11" xfId="215"/>
+    <cellStyle name="Normal 8_Header" xfId="216"/>
+    <cellStyle name="Normal 2 10 3" xfId="217"/>
+    <cellStyle name="Normal 2 6_補足説明" xfId="218"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="219"/>
+    <cellStyle name="標準 5 3 2" xfId="220"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="221"/>
+    <cellStyle name="パーセント[0.00]" xfId="222"/>
+    <cellStyle name="標準 130" xfId="223"/>
+    <cellStyle name="標準 125" xfId="224"/>
+    <cellStyle name="40% - アクセント 3 2 2" xfId="225"/>
+    <cellStyle name="標準 44 2" xfId="226"/>
+    <cellStyle name="Normal 12" xfId="227"/>
+    <cellStyle name="Input [yellow]" xfId="228"/>
+    <cellStyle name="出力 3" xfId="229"/>
+    <cellStyle name="Normal 14" xfId="230"/>
+    <cellStyle name="標準 15 2" xfId="231"/>
+    <cellStyle name="標準 20 2" xfId="232"/>
+    <cellStyle name="ハイパーリンク 2 4 4" xfId="233"/>
+    <cellStyle name="Normal 2 2" xfId="234"/>
+    <cellStyle name="Normal 2 11" xfId="235"/>
+    <cellStyle name="Input [yellow] 2" xfId="236"/>
+    <cellStyle name="40% - アクセント 2 3" xfId="237"/>
+    <cellStyle name="SAPBEXexcBad" xfId="238"/>
+    <cellStyle name="SAPBEXaggData" xfId="239"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="240"/>
+    <cellStyle name="Normal 19" xfId="241"/>
+    <cellStyle name="Normal 24" xfId="242"/>
+    <cellStyle name="標準 7 2 3" xfId="243"/>
+    <cellStyle name="通貨 2" xfId="244"/>
+    <cellStyle name="標準 22" xfId="245"/>
+    <cellStyle name="標準 17" xfId="246"/>
+    <cellStyle name="標準 8 7 3" xfId="247"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="248"/>
+    <cellStyle name="Normal 2 2 2 6 2" xfId="249"/>
+    <cellStyle name="標準 5 3" xfId="250"/>
+    <cellStyle name="Header2 2" xfId="251"/>
+    <cellStyle name="Normal - Style1" xfId="252"/>
+    <cellStyle name="標準 10 2" xfId="253"/>
+    <cellStyle name="標準 3 4 2 2" xfId="254"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="255"/>
+    <cellStyle name="Normal 2 2 2 5" xfId="256"/>
+    <cellStyle name="標準 6 3 3" xfId="257"/>
+    <cellStyle name="標準 9 4 2" xfId="258"/>
+    <cellStyle name="ハイパーリンク 2 3" xfId="259"/>
+    <cellStyle name="20% - アクセント 5 3" xfId="260"/>
+    <cellStyle name="BD標準" xfId="261"/>
+    <cellStyle name="Normal 2 2 2 6 3" xfId="262"/>
+    <cellStyle name="標準 12 2 3 2" xfId="263"/>
+    <cellStyle name="60% - アクセント 6 3" xfId="264"/>
+    <cellStyle name="ハイパーリンク 2 8 2 2 2" xfId="265"/>
+    <cellStyle name="Normal 17 2 3" xfId="266"/>
+    <cellStyle name="標準 6 3 5" xfId="267"/>
+    <cellStyle name="Normal 2 2 2 7" xfId="268"/>
+    <cellStyle name="標準 4 2 2 2" xfId="269"/>
+    <cellStyle name="標準 10 4" xfId="270"/>
+    <cellStyle name="Normal 2 2 2 7 2" xfId="271"/>
+    <cellStyle name="ハイパーリンク 3 3" xfId="272"/>
+    <cellStyle name="標準 4 3 2 2" xfId="273"/>
+    <cellStyle name="標準 2 5 4" xfId="274"/>
+    <cellStyle name="ハイパーリンク 3 4" xfId="275"/>
+    <cellStyle name="Normal 2 2 2 8" xfId="276"/>
+    <cellStyle name="Normal 13 4 2" xfId="277"/>
+    <cellStyle name="revised" xfId="278"/>
+    <cellStyle name="標準 9 3 2" xfId="279"/>
+    <cellStyle name="標準 8 8 2 2" xfId="280"/>
+    <cellStyle name="標準 5 2 2 4 2" xfId="281"/>
+    <cellStyle name="Normal 2 2 4" xfId="282"/>
+    <cellStyle name="標準 28" xfId="283"/>
+    <cellStyle name="標準 33" xfId="284"/>
+    <cellStyle name="Normal 2 2 6" xfId="285"/>
+    <cellStyle name="標準 3 3 3" xfId="286"/>
+    <cellStyle name="標準 3 3 5" xfId="287"/>
+    <cellStyle name="Normal 2 2 8" xfId="288"/>
+    <cellStyle name="60% - アクセント 1 3" xfId="289"/>
+    <cellStyle name="Normal 2 2 9" xfId="290"/>
+    <cellStyle name="標準 3 3 6" xfId="291"/>
+    <cellStyle name="Normal 2 6" xfId="292"/>
+    <cellStyle name="Normal 2 4" xfId="293"/>
+    <cellStyle name="標準 2 2 9 4 3" xfId="294"/>
+    <cellStyle name="ハイパーリンク 3 3 3" xfId="295"/>
+    <cellStyle name="Normal 2 6 2" xfId="296"/>
+    <cellStyle name="アクセント 4 2" xfId="297"/>
+    <cellStyle name="Normal 2 9 3" xfId="298"/>
+    <cellStyle name="Normal 2 9 2" xfId="299"/>
+    <cellStyle name="Normal 20 2 2" xfId="300"/>
+    <cellStyle name="チェック セル 2" xfId="301"/>
+    <cellStyle name="ハイパーリンク 2 4" xfId="302"/>
+    <cellStyle name="標準 2 4 9" xfId="303"/>
+    <cellStyle name="標準_機能設計書（月次処理）" xfId="304"/>
+    <cellStyle name="Normal 3" xfId="305"/>
+    <cellStyle name="Normal 3 2" xfId="306"/>
+    <cellStyle name="Normal 3 3" xfId="307"/>
+    <cellStyle name="Normal 3 4" xfId="308"/>
+    <cellStyle name="per.style" xfId="309"/>
+    <cellStyle name="Normal 21" xfId="310"/>
+    <cellStyle name="Normal 16" xfId="311"/>
+    <cellStyle name="Normal 3 7" xfId="312"/>
+    <cellStyle name="subhead" xfId="313"/>
+    <cellStyle name="標準 5 2 2" xfId="314"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="315"/>
+    <cellStyle name="Normal 3 7 2" xfId="316"/>
+    <cellStyle name="Normal 5" xfId="317"/>
+    <cellStyle name="標準 2 2 12 2" xfId="318"/>
+    <cellStyle name="Normal 6" xfId="319"/>
+    <cellStyle name="Normal 8 2" xfId="320"/>
+    <cellStyle name="標準 5 2 5" xfId="321"/>
+    <cellStyle name="標準 5 2 6 2" xfId="322"/>
+    <cellStyle name="Normal 8 3 2" xfId="323"/>
+    <cellStyle name="標準 6 9" xfId="324"/>
+    <cellStyle name="40% - アクセント 2 2 2" xfId="325"/>
+    <cellStyle name="PSChar" xfId="326"/>
+    <cellStyle name="標準 20" xfId="327"/>
+    <cellStyle name="標準 15" xfId="328"/>
+    <cellStyle name="Normal 12 2" xfId="329"/>
+    <cellStyle name="Normal 13" xfId="330"/>
+    <cellStyle name="出力 2" xfId="331"/>
+    <cellStyle name="ハイパーリンク 2 4 3" xfId="332"/>
+    <cellStyle name="Grey" xfId="333"/>
+    <cellStyle name="標準 3 3 2" xfId="334"/>
+    <cellStyle name="標準 2 9 2" xfId="335"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="336"/>
+    <cellStyle name="標準 5 2 2 2 2" xfId="337"/>
+    <cellStyle name="SAPBEXheaderData" xfId="338"/>
+    <cellStyle name="標準 126" xfId="339"/>
+    <cellStyle name="標準 131" xfId="340"/>
+    <cellStyle name="60% - アクセント 4 3" xfId="341"/>
+    <cellStyle name="標準 5 3 3" xfId="342"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="343"/>
+    <cellStyle name="標準 16 2 3" xfId="344"/>
+    <cellStyle name="SAPBEXheaderText" xfId="345"/>
+    <cellStyle name="Percent [2]" xfId="346"/>
+    <cellStyle name="標準 2 4 7" xfId="347"/>
+    <cellStyle name="標準 118 4" xfId="348"/>
+    <cellStyle name="Normal 4" xfId="349"/>
+    <cellStyle name="標準 8 8" xfId="350"/>
+    <cellStyle name="SAPBEXstdData" xfId="351"/>
+    <cellStyle name="Normal 2 6 2 3" xfId="352"/>
+    <cellStyle name="標準 3 7 3 2" xfId="353"/>
+    <cellStyle name="section" xfId="354"/>
+    <cellStyle name="title 3" xfId="355"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="356"/>
+    <cellStyle name="title 4" xfId="357"/>
+    <cellStyle name="title 6" xfId="358"/>
+    <cellStyle name="標準 7 6 2 2 2" xfId="359"/>
+    <cellStyle name="umeda" xfId="360"/>
+    <cellStyle name="標準 69" xfId="361"/>
+    <cellStyle name="標準 74" xfId="362"/>
+    <cellStyle name="Normal 2 12 2" xfId="363"/>
+    <cellStyle name="Normal 2 6 3" xfId="364"/>
+    <cellStyle name="アクセント 1 2" xfId="365"/>
+    <cellStyle name="Normal 2 3" xfId="366"/>
+    <cellStyle name="標準 2 2 9 4 2" xfId="367"/>
+    <cellStyle name="Normal 7 3" xfId="368"/>
+    <cellStyle name="アクセント 1 2 2" xfId="369"/>
+    <cellStyle name="Calculation" xfId="370" builtinId="22"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="371"/>
+    <cellStyle name="アクセント 2 3" xfId="372"/>
+    <cellStyle name="標準 81 2" xfId="373"/>
+    <cellStyle name="Normal 2 13 3" xfId="374"/>
+    <cellStyle name="アクセント 3 2 2" xfId="375"/>
+    <cellStyle name="20% - アクセント 3 3" xfId="376"/>
+    <cellStyle name="title 5" xfId="377"/>
+    <cellStyle name="アクセント 3 3" xfId="378"/>
+    <cellStyle name="標準 82 2" xfId="379"/>
+    <cellStyle name="通貨 2 3 3" xfId="380"/>
+    <cellStyle name="アクセント 4 2 2" xfId="381"/>
+    <cellStyle name="Normal 2 6 2 2" xfId="382"/>
+    <cellStyle name="ハイパーリンク 2" xfId="383"/>
+    <cellStyle name="標準 2 3 5 4 3" xfId="384"/>
+    <cellStyle name="通貨 2 5 3" xfId="385"/>
+    <cellStyle name="アクセント 5 3" xfId="386"/>
+    <cellStyle name="アクセント 2 2" xfId="387"/>
+    <cellStyle name="Normal 2 13 2" xfId="388"/>
+    <cellStyle name="通貨 2 2 2" xfId="389"/>
+    <cellStyle name="Normal 2 7 3" xfId="390"/>
+    <cellStyle name="アクセント 3 2" xfId="391"/>
+    <cellStyle name="Normal 2 8 3" xfId="392"/>
+    <cellStyle name="通貨 2 3 2" xfId="393"/>
+    <cellStyle name="標準 2 2 3" xfId="394"/>
+    <cellStyle name="アクセント 6 3" xfId="395"/>
+    <cellStyle name="見出し 1 3" xfId="396"/>
+    <cellStyle name="標準 2 2 2 19" xfId="397"/>
+    <cellStyle name="標準 3 7 2 2" xfId="398"/>
+    <cellStyle name="タイトル 3" xfId="399"/>
+    <cellStyle name="ハイパーリンク 2 4 2" xfId="400"/>
+    <cellStyle name="チェック セル 2 2" xfId="401"/>
+    <cellStyle name="標準 2 2 2 4" xfId="402"/>
+    <cellStyle name="標準 5 6 2 3" xfId="403"/>
+    <cellStyle name="標準 8 13" xfId="404"/>
+    <cellStyle name="どちらでもない 3" xfId="405"/>
+    <cellStyle name="Normal 2 8 2" xfId="406"/>
+    <cellStyle name="標準 2 2 2" xfId="407"/>
+    <cellStyle name="アクセント 6 2" xfId="408"/>
+    <cellStyle name="見出し 1 2" xfId="409"/>
+    <cellStyle name="標準 2 2 2 18" xfId="410"/>
+    <cellStyle name="ハイパーリンク 2 11" xfId="411"/>
+    <cellStyle name="ハイパーリンク 2 5" xfId="412"/>
+    <cellStyle name="チェック セル 3" xfId="413"/>
+    <cellStyle name="ハイパーリンク 2 6" xfId="414"/>
+    <cellStyle name="ハイパーリンク 2 7" xfId="415"/>
+    <cellStyle name="ハイパーリンク 2 8" xfId="416"/>
+    <cellStyle name="どちらでもない 2 2" xfId="417"/>
+    <cellStyle name="標準 5 6 2 2 2" xfId="418"/>
+    <cellStyle name="桁区切り 2 2 4 2" xfId="419"/>
+    <cellStyle name="ハイパーリンク 2 9" xfId="420"/>
+    <cellStyle name="ハイパーリンク 3" xfId="421"/>
+    <cellStyle name="ハイパーリンク 3 2" xfId="422"/>
+    <cellStyle name="未定義" xfId="423"/>
+    <cellStyle name="標準 2 8 2 2 3" xfId="424"/>
+    <cellStyle name="標準 2 3 3" xfId="425"/>
+    <cellStyle name="ハイパーリンク 3 2 2" xfId="426"/>
+    <cellStyle name="40% - アクセント 3 3" xfId="427"/>
+    <cellStyle name="標準 10 3" xfId="428"/>
+    <cellStyle name="標準 3 4 2 3" xfId="429"/>
+    <cellStyle name="40% - アクセント 1 3" xfId="430"/>
+    <cellStyle name="SAPBEXundefined" xfId="431"/>
+    <cellStyle name="標準 6 3 4" xfId="432"/>
+    <cellStyle name="Normal 2 2 2 6" xfId="433"/>
+    <cellStyle name="上詰め＋折返し 2" xfId="434"/>
+    <cellStyle name="メモ 3" xfId="435"/>
+    <cellStyle name="標準 3 10" xfId="436"/>
+    <cellStyle name="アクセント 5 2 2" xfId="437"/>
+    <cellStyle name="通貨 2 5 2 2" xfId="438"/>
+    <cellStyle name="入力 2" xfId="439"/>
+    <cellStyle name="見出し 4 2 2" xfId="440"/>
+    <cellStyle name="標準 3 3 6 4 2" xfId="441"/>
+    <cellStyle name="入力 3" xfId="442"/>
+    <cellStyle name="SAPBEXsubItem" xfId="443"/>
+    <cellStyle name="標準 2 2 17" xfId="444"/>
+    <cellStyle name="出力 2 2" xfId="445"/>
+    <cellStyle name="Normal 13 2" xfId="446"/>
+    <cellStyle name="外付テーブル" xfId="447"/>
+    <cellStyle name="悪い 2 2" xfId="448"/>
+    <cellStyle name="Normal 18 2 3" xfId="449"/>
+    <cellStyle name="桁区切り 2 6 2 2" xfId="450"/>
+    <cellStyle name="標準 2 2 3 5" xfId="451"/>
+    <cellStyle name="20% - アクセント 1 3" xfId="452"/>
+    <cellStyle name="悪い 2 2 2" xfId="453"/>
+    <cellStyle name="ハイパーリンク 2 2 2" xfId="454"/>
+    <cellStyle name="SAPBEXexcVeryBad" xfId="455"/>
+    <cellStyle name="標準 2 2 2 4 3" xfId="456"/>
+    <cellStyle name="標準 2 2 3 6" xfId="457"/>
+    <cellStyle name="悪い 2 2 3" xfId="458"/>
+    <cellStyle name="ハイパーリンク 2 2 3" xfId="459"/>
+    <cellStyle name="標準 2 2 2 4 4" xfId="460"/>
+    <cellStyle name="悪い 2 3" xfId="461"/>
+    <cellStyle name="悪い 3" xfId="462"/>
+    <cellStyle name="桁区切り 2 6 3" xfId="463"/>
+    <cellStyle name="CExplanatory Text" xfId="464" builtinId="53"/>
+    <cellStyle name="桁区切り [0.0]" xfId="465"/>
+    <cellStyle name="桁区切り 2" xfId="466"/>
+    <cellStyle name="60% - アクセント 6 2 2" xfId="467"/>
+    <cellStyle name="桁区切り 2 2 2" xfId="468"/>
+    <cellStyle name="標準 3 3 6 4 3" xfId="469"/>
+    <cellStyle name="標準 3 3 7" xfId="470"/>
+    <cellStyle name="桁区切り 2 2 3 2" xfId="471"/>
+    <cellStyle name="Normal 14 3 3" xfId="472"/>
+    <cellStyle name="桁区切り 2 2 4" xfId="473"/>
+    <cellStyle name="桁区切り 2 2 5" xfId="474"/>
+    <cellStyle name="桁区切り 2 3" xfId="475"/>
+    <cellStyle name="Normal 20 2 3" xfId="476"/>
+    <cellStyle name="桁区切り 2 3 2 2" xfId="477"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="478"/>
+    <cellStyle name="標準 11 2" xfId="479"/>
+    <cellStyle name="標準 25" xfId="480"/>
+    <cellStyle name="標準 30" xfId="481"/>
+    <cellStyle name="桁区切り 2 3 3" xfId="482"/>
+    <cellStyle name="標準 12" xfId="483"/>
+    <cellStyle name="標準 2 3 5 2 2" xfId="484"/>
+    <cellStyle name="桁区切り 2 4" xfId="485"/>
+    <cellStyle name="桁区切り 2 4 2" xfId="486"/>
+    <cellStyle name="標準 4 2 2 3" xfId="487"/>
+    <cellStyle name="標準 10 5" xfId="488"/>
+    <cellStyle name="桁区切り 2 4 2 2" xfId="489"/>
+    <cellStyle name="Normal 21 2 3" xfId="490"/>
+    <cellStyle name="桁区切り 2 5" xfId="491"/>
+    <cellStyle name="桁区切り 2 7" xfId="492"/>
+    <cellStyle name="標準 4 2 2 4" xfId="493"/>
+    <cellStyle name="桁区切り 2 4 3" xfId="494"/>
+    <cellStyle name="標準 10 6" xfId="495"/>
+    <cellStyle name="60% - アクセント 1 2 2" xfId="496"/>
+    <cellStyle name="アクセント 1 3" xfId="497"/>
+    <cellStyle name="Normal 2 12 3" xfId="498"/>
+    <cellStyle name="標準 3 6 4 2" xfId="499"/>
+    <cellStyle name="標準 3 7 2" xfId="500"/>
+    <cellStyle name="標準 100" xfId="501"/>
+    <cellStyle name="標準 4 5" xfId="502"/>
+    <cellStyle name="標準 2 10 3" xfId="503"/>
+    <cellStyle name="標準 107" xfId="504"/>
+    <cellStyle name="標準 112" xfId="505"/>
+    <cellStyle name="標準 102" xfId="506"/>
+    <cellStyle name="標準 3 6 4 4" xfId="507"/>
+    <cellStyle name="標準 103" xfId="508"/>
+    <cellStyle name="標準 3 6 4 5" xfId="509"/>
+    <cellStyle name="標準 104" xfId="510"/>
+    <cellStyle name="標準 5 2 4 2" xfId="511"/>
+    <cellStyle name="標準 105" xfId="512"/>
+    <cellStyle name="標準 110" xfId="513"/>
+    <cellStyle name="標準 109" xfId="514"/>
+    <cellStyle name="標準 114" xfId="515"/>
+    <cellStyle name="SAPBEXfilterText" xfId="516"/>
+    <cellStyle name="標準 2 2 2 13" xfId="517"/>
+    <cellStyle name="標準 4 2 3 2" xfId="518"/>
+    <cellStyle name="標準 11 4" xfId="519"/>
+    <cellStyle name="標準 27" xfId="520"/>
+    <cellStyle name="標準 32" xfId="521"/>
+    <cellStyle name="標準 11 5" xfId="522"/>
+    <cellStyle name="標準 4 2 3 3" xfId="523"/>
+    <cellStyle name="標準 2 2 2 14" xfId="524"/>
+    <cellStyle name="標準 11 6" xfId="525"/>
+    <cellStyle name="標準 4 2 3 4" xfId="526"/>
+    <cellStyle name="標準 2 2 2 15" xfId="527"/>
+    <cellStyle name="標準 2 2 2 20" xfId="528"/>
+    <cellStyle name="標準 11 7" xfId="529"/>
+    <cellStyle name="SAPBEXchaText" xfId="530"/>
+    <cellStyle name="標準 11 8" xfId="531"/>
+    <cellStyle name="標準 5 2 6 2 2" xfId="532"/>
+    <cellStyle name="標準 5 2 6 2 3" xfId="533"/>
+    <cellStyle name="標準 11 9" xfId="534"/>
+    <cellStyle name="Output" xfId="535" builtinId="21"/>
+    <cellStyle name="標準 37" xfId="536"/>
+    <cellStyle name="標準 42" xfId="537"/>
+    <cellStyle name="標準 115" xfId="538"/>
+    <cellStyle name="標準 120" xfId="539"/>
+    <cellStyle name="標準 116" xfId="540"/>
+    <cellStyle name="標準 121" xfId="541"/>
+    <cellStyle name="標準 2 2 6" xfId="542"/>
+    <cellStyle name="標準 116 3" xfId="543"/>
+    <cellStyle name="標準 121 3" xfId="544"/>
+    <cellStyle name="標準 2 2 9" xfId="545"/>
+    <cellStyle name="標準 122 5" xfId="546"/>
+    <cellStyle name="標準 2 3 8" xfId="547"/>
+    <cellStyle name="標準 7 6 2" xfId="548"/>
+    <cellStyle name="標準 119" xfId="549"/>
+    <cellStyle name="標準 124" xfId="550"/>
+    <cellStyle name="標準 4 3 2 3" xfId="551"/>
+    <cellStyle name="標準 119 2" xfId="552"/>
+    <cellStyle name="標準 2 2 12" xfId="553"/>
+    <cellStyle name="標準 4 3 2 4" xfId="554"/>
+    <cellStyle name="標準 119 3" xfId="555"/>
+    <cellStyle name="60% - アクセント 2 2 2" xfId="556"/>
+    <cellStyle name="標準 2 2 13" xfId="557"/>
+    <cellStyle name="ハイパーリンク 3 5" xfId="558"/>
+    <cellStyle name="標準 2 2 2 4 2 2" xfId="559"/>
+    <cellStyle name="アクセント 5 2" xfId="560"/>
+    <cellStyle name="通貨 2 5 2" xfId="561"/>
+    <cellStyle name="標準 119 3 2" xfId="562"/>
+    <cellStyle name="標準 2 2 16" xfId="563"/>
+    <cellStyle name="標準 2 2 21" xfId="564"/>
+    <cellStyle name="標準 12 2 2" xfId="565"/>
+    <cellStyle name="40% - アクセント 5 2 2" xfId="566"/>
+    <cellStyle name="標準 12 2 2 3" xfId="567"/>
+    <cellStyle name="標準 12 2 3" xfId="568"/>
+    <cellStyle name="標準 12 2 3 3" xfId="569"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="570"/>
+    <cellStyle name="標準 3 3 5 3" xfId="571"/>
+    <cellStyle name="標準 120 2" xfId="572"/>
+    <cellStyle name="標準 120 3" xfId="573"/>
+    <cellStyle name="標準 122 7" xfId="574"/>
+    <cellStyle name="標準 2 2 11 3" xfId="575"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="576"/>
+    <cellStyle name="標準 122 7 2" xfId="577"/>
+    <cellStyle name="標準 122 7 3 3" xfId="578"/>
+    <cellStyle name="標準 122 7 3 4" xfId="579"/>
+    <cellStyle name="標準 122 7 4" xfId="580"/>
+    <cellStyle name="標準 122 7 6 2" xfId="581"/>
+    <cellStyle name="標準 5 6 3 2" xfId="582"/>
+    <cellStyle name="標準 122 9" xfId="583"/>
+    <cellStyle name="標準 122 9 3" xfId="584"/>
+    <cellStyle name="標準 122 9 3 2" xfId="585"/>
+    <cellStyle name="悪い 2" xfId="586"/>
+    <cellStyle name="標準 122 9 4" xfId="587"/>
+    <cellStyle name="桁区切り 2 6 2" xfId="588"/>
+    <cellStyle name="標準 2 3 2 3" xfId="589"/>
+    <cellStyle name="標準 128" xfId="590"/>
+    <cellStyle name="標準 133" xfId="591"/>
+    <cellStyle name="標準 2 2 9 2 3" xfId="592"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="593"/>
+    <cellStyle name="Accent2" xfId="594" builtinId="33"/>
+    <cellStyle name="標準 13 2" xfId="595"/>
+    <cellStyle name="標準 134 2" xfId="596"/>
+    <cellStyle name="標準 135 2" xfId="597"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="598"/>
+    <cellStyle name="Normal 2 2 7" xfId="599"/>
+    <cellStyle name="標準 14" xfId="600"/>
+    <cellStyle name="標準 15 3" xfId="601"/>
+    <cellStyle name="標準 20 3" xfId="602"/>
+    <cellStyle name="SAPBEXtitle" xfId="603"/>
+    <cellStyle name="20% - アクセント 1 2 2" xfId="604"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="605"/>
+    <cellStyle name="標準 16 2" xfId="606"/>
+    <cellStyle name="上詰め＋折返し 3" xfId="607"/>
+    <cellStyle name="標準 3 11" xfId="608"/>
+    <cellStyle name="標準 16 2 2" xfId="609"/>
+    <cellStyle name="標準 2 4 6" xfId="610"/>
+    <cellStyle name="標準 118 3" xfId="611"/>
+    <cellStyle name="標準 16 2 2 2" xfId="612"/>
+    <cellStyle name="標準 16 2 2 3" xfId="613"/>
+    <cellStyle name="標準 16 2 3 2" xfId="614"/>
+    <cellStyle name="悪い 2 2 2 2" xfId="615"/>
+    <cellStyle name="標準 16 3" xfId="616"/>
+    <cellStyle name="ハイパーリンク 3 3 2" xfId="617"/>
+    <cellStyle name="標準 16 4" xfId="618"/>
+    <cellStyle name="悪い 2 2 2 3" xfId="619"/>
+    <cellStyle name="標準 19 2" xfId="620"/>
+    <cellStyle name="標準 24 2" xfId="621"/>
+    <cellStyle name="標準 2" xfId="622"/>
+    <cellStyle name="標準 2 10" xfId="623"/>
+    <cellStyle name="標準 111" xfId="624"/>
+    <cellStyle name="標準 106" xfId="625"/>
+    <cellStyle name="標準 2 10 2" xfId="626"/>
+    <cellStyle name="標準 2 11" xfId="627"/>
+    <cellStyle name="標準 2 12" xfId="628"/>
+    <cellStyle name="標準 2 15" xfId="629"/>
+    <cellStyle name="標準 2 20" xfId="630"/>
+    <cellStyle name="標準 2 18" xfId="631"/>
+    <cellStyle name="標準 2 23" xfId="632"/>
+    <cellStyle name="標準 2 19" xfId="633"/>
+    <cellStyle name="標準 2 2 10" xfId="634"/>
+    <cellStyle name="標準 2 2 10 2" xfId="635"/>
+    <cellStyle name="SAPBEXresItem" xfId="636"/>
+    <cellStyle name="標準 2 2 12 2 2" xfId="637"/>
+    <cellStyle name="標準 2 4 13" xfId="638"/>
+    <cellStyle name="標準 2 2 14" xfId="639"/>
+    <cellStyle name="Hyperlink" xfId="640" builtinId="8"/>
+    <cellStyle name="標準 2 2 15" xfId="641"/>
+    <cellStyle name="標準 2 2 20" xfId="642"/>
+    <cellStyle name="標準 2 2 18" xfId="643"/>
+    <cellStyle name="40% - Accent1" xfId="644" builtinId="31"/>
+    <cellStyle name="標準 2 2 19" xfId="645"/>
+    <cellStyle name="標準 2 2 2 5 2" xfId="646"/>
+    <cellStyle name="標準 2 2 2 10" xfId="647"/>
+    <cellStyle name="標準 2 2 2 11" xfId="648"/>
+    <cellStyle name="標準 4 3 2" xfId="649"/>
+    <cellStyle name="標準 4 3 3" xfId="650"/>
+    <cellStyle name="標準 2 2 2 12" xfId="651"/>
+    <cellStyle name="標準 2 17" xfId="652"/>
+    <cellStyle name="標準 2 22" xfId="653"/>
+    <cellStyle name="標準 2 2 2 16" xfId="654"/>
+    <cellStyle name="標準 2 2 2 17" xfId="655"/>
+    <cellStyle name="標準 2 2 2 2 3" xfId="656"/>
+    <cellStyle name="標準 3 3 5 4" xfId="657"/>
+    <cellStyle name="見出し 3 2" xfId="658"/>
+    <cellStyle name="標準 2 2 2 2 4" xfId="659"/>
+    <cellStyle name="見出し 3 3" xfId="660"/>
+    <cellStyle name="標準 2 2 2 4 5" xfId="661"/>
+    <cellStyle name="標準 2 2 3 2" xfId="662"/>
+    <cellStyle name="標準 2 2 3 3" xfId="663"/>
+    <cellStyle name="Normal 2 14" xfId="664"/>
+    <cellStyle name="通貨 2 3" xfId="665"/>
+    <cellStyle name="標準 2 2 3 6 2" xfId="666"/>
+    <cellStyle name="40% - Accent3" xfId="667" builtinId="39"/>
+    <cellStyle name="ハイパーリンク 2 3 3" xfId="668"/>
+    <cellStyle name="標準 2 2 3 7" xfId="669"/>
+    <cellStyle name="標準 2 2 4" xfId="670"/>
+    <cellStyle name="Title" xfId="671" builtinId="15"/>
+    <cellStyle name="標準 2 2 5" xfId="672"/>
+    <cellStyle name="標準 116 2" xfId="673"/>
+    <cellStyle name="標準 121 2" xfId="674"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="675"/>
+    <cellStyle name="標準 2 2 7 4" xfId="676"/>
+    <cellStyle name="標準 2 3 2 2" xfId="677"/>
+    <cellStyle name="標準 127" xfId="678"/>
+    <cellStyle name="標準 132" xfId="679"/>
+    <cellStyle name="Normal 2 2 10" xfId="680"/>
+    <cellStyle name="標準 2 2 9 2 2" xfId="681"/>
+    <cellStyle name="標準 2 3 2 4" xfId="682"/>
+    <cellStyle name="標準 134" xfId="683"/>
+    <cellStyle name="標準 129" xfId="684"/>
+    <cellStyle name="標準 2 3 4" xfId="685"/>
+    <cellStyle name="標準 2 3 5" xfId="686"/>
+    <cellStyle name="標準 117 2" xfId="687"/>
+    <cellStyle name="標準 122 2" xfId="688"/>
+    <cellStyle name="警告文 3" xfId="689"/>
+    <cellStyle name="標準 2 3 5 2" xfId="690"/>
+    <cellStyle name="標準 2 4 10" xfId="691"/>
+    <cellStyle name="標準 2 3 5 3" xfId="692"/>
+    <cellStyle name="標準 2 4 11" xfId="693"/>
+    <cellStyle name="標準 2 3 5 4" xfId="694"/>
+    <cellStyle name="標準 2 4 12" xfId="695"/>
+    <cellStyle name="標準 2 3 6" xfId="696"/>
+    <cellStyle name="標準 122 3" xfId="697"/>
+    <cellStyle name="標準 5 2 5 3" xfId="698"/>
+    <cellStyle name="標準 2 3 6 2" xfId="699"/>
+    <cellStyle name="ハイパーリンク 3 3 2 2" xfId="700"/>
+    <cellStyle name="標準 122 4" xfId="701"/>
+    <cellStyle name="標準 2 3 7" xfId="702"/>
+    <cellStyle name="標準 2 4 14" xfId="703"/>
+    <cellStyle name="標準 3 6 2 2 2 2" xfId="704"/>
+    <cellStyle name="標準 2 4 15" xfId="705"/>
+    <cellStyle name="標準 2 4 20" xfId="706"/>
+    <cellStyle name="標準 12 2" xfId="707"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="708"/>
+    <cellStyle name="ハイパーリンク 2 8 2 2" xfId="709"/>
+    <cellStyle name="標準 2 4 2" xfId="710"/>
+    <cellStyle name="Normal 2 2 2_補足説明" xfId="711"/>
+    <cellStyle name="標準 2 4 3" xfId="712"/>
+    <cellStyle name="ハイパーリンク 2 8 2 3" xfId="713"/>
+    <cellStyle name="標準 2 4 4" xfId="714"/>
+    <cellStyle name="標準 2 4 4 3" xfId="715"/>
+    <cellStyle name="標準 2 4 5" xfId="716"/>
+    <cellStyle name="標準 118 2" xfId="717"/>
+    <cellStyle name="標準 2 4 5 3" xfId="718"/>
+    <cellStyle name="標準 9 3 3" xfId="719"/>
+    <cellStyle name="標準 9 5" xfId="720"/>
+    <cellStyle name="Normal 2 7" xfId="721"/>
+    <cellStyle name="標準 2 4 5 4 2" xfId="722"/>
+    <cellStyle name="Comma [0]" xfId="723" builtinId="6"/>
+    <cellStyle name="標準 2 8" xfId="724"/>
+    <cellStyle name="標準 58" xfId="725"/>
+    <cellStyle name="標準 63" xfId="726"/>
+    <cellStyle name="標準 2 4" xfId="727"/>
+    <cellStyle name="標準 2 8 2 3" xfId="728"/>
+    <cellStyle name="ハイパーリンク 2 8 2" xfId="729"/>
+    <cellStyle name="標準 49" xfId="730"/>
+    <cellStyle name="標準 54" xfId="731"/>
+    <cellStyle name="標準 28 2" xfId="732"/>
+    <cellStyle name="ハイパーリンク 3 3 2 3" xfId="733"/>
+    <cellStyle name="標準 8 2 2 4" xfId="734"/>
+    <cellStyle name="標準 2 4 4 2" xfId="735"/>
+    <cellStyle name="標準 3 7" xfId="736"/>
+    <cellStyle name="標準 3 6 4" xfId="737"/>
+    <cellStyle name="標準 2 8 3 2" xfId="738"/>
+    <cellStyle name="標準 98" xfId="739"/>
+    <cellStyle name="標準 3 3" xfId="740"/>
+    <cellStyle name="標準 75" xfId="741"/>
+    <cellStyle name="標準 80" xfId="742"/>
+    <cellStyle name="標準 7 6 2 2 3" xfId="743"/>
+    <cellStyle name="標準 3 8" xfId="744"/>
+    <cellStyle name="標準 3 6 5" xfId="745"/>
+    <cellStyle name="ハイパーリンク 2 9 2" xfId="746"/>
+    <cellStyle name="標準 3 4" xfId="747"/>
+    <cellStyle name="標準 2 8 3 3" xfId="748"/>
+    <cellStyle name="標準 99" xfId="749"/>
+    <cellStyle name="SAPBEXformats" xfId="750"/>
+    <cellStyle name="標準 96" xfId="751"/>
+    <cellStyle name="ハイパーリンク 2 9 3" xfId="752"/>
+    <cellStyle name="標準 3 6 3 2" xfId="753"/>
+    <cellStyle name="標準 3 6 2" xfId="754"/>
+    <cellStyle name="標準 3 5" xfId="755"/>
+    <cellStyle name="60% - アクセント 3 2 2" xfId="756"/>
+    <cellStyle name="標準 122 10" xfId="757"/>
+    <cellStyle name="標準 2 9" xfId="758"/>
+    <cellStyle name="標準 64" xfId="759"/>
+    <cellStyle name="標準 59" xfId="760"/>
+    <cellStyle name="標準 5 2 2 2" xfId="761"/>
+    <cellStyle name="標準 6 7 2" xfId="762"/>
+    <cellStyle name="標準 2 8 2 2 2" xfId="763"/>
+    <cellStyle name="標準 2 3 2" xfId="764"/>
+    <cellStyle name="標準 2 2 6 2" xfId="765"/>
+    <cellStyle name="標準 2 9 3" xfId="766"/>
+    <cellStyle name="標準 5 2 2 2 3" xfId="767"/>
+    <cellStyle name="標準 28 3" xfId="768"/>
+    <cellStyle name="Normal 7_Header" xfId="769"/>
+    <cellStyle name="標準 3 2 2" xfId="770"/>
+    <cellStyle name="ハイパーリンク 2 5 3" xfId="771"/>
+    <cellStyle name="Normal 2 7 2" xfId="772"/>
+    <cellStyle name="集計 2 2" xfId="773"/>
+    <cellStyle name="通貨 2 3 4 4" xfId="774"/>
+    <cellStyle name="標準 2 8 2 2" xfId="775"/>
+    <cellStyle name="標準 48" xfId="776"/>
+    <cellStyle name="標準 53" xfId="777"/>
+    <cellStyle name="標準 2 3" xfId="778"/>
+    <cellStyle name="標準 3 2 2 2 2" xfId="779"/>
+    <cellStyle name="標準 3 2 2 2 3" xfId="780"/>
+    <cellStyle name="標準 3 3 5 2" xfId="781"/>
+    <cellStyle name="標準 7 2 4" xfId="782"/>
+    <cellStyle name="標準 3 3 2 2" xfId="783"/>
+    <cellStyle name="標準 3 3 6 2" xfId="784"/>
+    <cellStyle name="標準 3 3 6 3" xfId="785"/>
+    <cellStyle name="見出し 4 2" xfId="786"/>
+    <cellStyle name="標準 3 3 6 4" xfId="787"/>
+    <cellStyle name="標準 3 2 2 3" xfId="788"/>
+    <cellStyle name="標準 3 2 2 4" xfId="789"/>
+    <cellStyle name="標準 3 2 2 5" xfId="790"/>
+    <cellStyle name="標準 11" xfId="791"/>
+    <cellStyle name="ハイパーリンク 2 9 2 3" xfId="792"/>
+    <cellStyle name="標準 3 4 3" xfId="793"/>
+    <cellStyle name="標準 3 5 3" xfId="794"/>
+    <cellStyle name="標準 2 6" xfId="795"/>
+    <cellStyle name="標準 3 6 2 3" xfId="796"/>
+    <cellStyle name="標準 56" xfId="797"/>
+    <cellStyle name="標準 61" xfId="798"/>
+    <cellStyle name="Normal 2 2_Header" xfId="799"/>
+    <cellStyle name="標準 2 3 5 3 2" xfId="800"/>
+    <cellStyle name="標準 62" xfId="801"/>
+    <cellStyle name="標準 57" xfId="802"/>
+    <cellStyle name="標準 3 5 4" xfId="803"/>
+    <cellStyle name="標準 2 7" xfId="804"/>
+    <cellStyle name="標準 3 6 3 3" xfId="805"/>
+    <cellStyle name="標準 3 6 3" xfId="806"/>
+    <cellStyle name="標準 3 6" xfId="807"/>
+    <cellStyle name="ハイパーリンク 2 9 4" xfId="808"/>
+    <cellStyle name="ハイパーリンク 2 8 3" xfId="809"/>
+    <cellStyle name="標準 3 6 2 2" xfId="810"/>
+    <cellStyle name="標準 3 5 2" xfId="811"/>
+    <cellStyle name="標準 2 5" xfId="812"/>
+    <cellStyle name="標準 60" xfId="813"/>
+    <cellStyle name="標準 55" xfId="814"/>
+    <cellStyle name="追加スタイル（梅田）" xfId="815"/>
+    <cellStyle name="メモ 2" xfId="816"/>
+    <cellStyle name="標準 46" xfId="817"/>
+    <cellStyle name="標準 51" xfId="818"/>
+    <cellStyle name="標準 3" xfId="819"/>
+    <cellStyle name="桁区切り 2 2 3 3" xfId="820"/>
+    <cellStyle name="標準 3 6 2 2 3" xfId="821"/>
+    <cellStyle name="標準 2 5 3" xfId="822"/>
+    <cellStyle name="標準 2 4 16" xfId="823"/>
+    <cellStyle name="標準 3 6 2 2 2 3" xfId="824"/>
+    <cellStyle name="標準 3 7 2 3" xfId="825"/>
+    <cellStyle name="文字入力" xfId="826"/>
+    <cellStyle name="警告文 2 2" xfId="827"/>
+    <cellStyle name="標準 3 7 3 3" xfId="828"/>
+    <cellStyle name="標準 3 8 2" xfId="829"/>
+    <cellStyle name="標準 5 5" xfId="830"/>
+    <cellStyle name="標準 35" xfId="831"/>
+    <cellStyle name="標準 40" xfId="832"/>
+    <cellStyle name="標準 36" xfId="833"/>
+    <cellStyle name="標準 41" xfId="834"/>
+    <cellStyle name="標準 4" xfId="835"/>
+    <cellStyle name="標準 6 3" xfId="836"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="837"/>
+    <cellStyle name="標準 2 2 3 4" xfId="838"/>
+    <cellStyle name="標準 4 2 2" xfId="839"/>
+    <cellStyle name="標準 4 3 2 2 2" xfId="840"/>
+    <cellStyle name="標準 4 3 2 2 3" xfId="841"/>
+    <cellStyle name="標準 4 3 2 2 4" xfId="842"/>
+    <cellStyle name="標準 2 2 2 4 2 3" xfId="843"/>
+    <cellStyle name="標準 4 3 2 5" xfId="844"/>
+    <cellStyle name="通貨 2 3 4 2" xfId="845"/>
+    <cellStyle name="集計 2" xfId="846"/>
+    <cellStyle name="標準 8 17" xfId="847"/>
+    <cellStyle name="標準 7 2 2 3" xfId="848"/>
+    <cellStyle name="標準 4 3 3 2" xfId="849"/>
+    <cellStyle name="40% - アクセント 6 3" xfId="850"/>
+    <cellStyle name="Accent3" xfId="851" builtinId="37"/>
+    <cellStyle name="標準 8 18" xfId="852"/>
+    <cellStyle name="標準 7 2 2 4" xfId="853"/>
+    <cellStyle name="標準 4 3 3 3" xfId="854"/>
+    <cellStyle name="標準 4 4" xfId="855"/>
+    <cellStyle name="標準 6 7 2 4" xfId="856"/>
+    <cellStyle name="標準 45" xfId="857"/>
+    <cellStyle name="標準 50" xfId="858"/>
+    <cellStyle name="Comma" xfId="859" builtinId="3"/>
+    <cellStyle name="標準 5 2 2 2 4" xfId="860"/>
+    <cellStyle name="標準 68" xfId="861"/>
+    <cellStyle name="標準 73" xfId="862"/>
+    <cellStyle name="標準 5 2 2 4" xfId="863"/>
+    <cellStyle name="標準 66" xfId="864"/>
+    <cellStyle name="標準 71" xfId="865"/>
+    <cellStyle name="標準 8 8 2" xfId="866"/>
+    <cellStyle name="標準 9 2 3" xfId="867"/>
+    <cellStyle name="標準 8 5" xfId="868"/>
+    <cellStyle name="標準 2 4 5 3 2" xfId="869"/>
+    <cellStyle name="標準 5 2 2 4 2 3" xfId="870"/>
+    <cellStyle name="標準 5 2 4" xfId="871"/>
+    <cellStyle name="標準 5 2 5 2" xfId="872"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="873"/>
+    <cellStyle name="標準 2 2 6 4" xfId="874"/>
+    <cellStyle name="標準 5 2 5 2 2" xfId="875"/>
+    <cellStyle name="標準 5 2 5 2 3" xfId="876"/>
+    <cellStyle name="標準 5 4" xfId="877"/>
+    <cellStyle name="標準 5 6" xfId="878"/>
+    <cellStyle name="アクセント 2 2 2" xfId="879"/>
+    <cellStyle name="標準 5 6 2" xfId="880"/>
+    <cellStyle name="標準 81" xfId="881"/>
+    <cellStyle name="標準 76" xfId="882"/>
+    <cellStyle name="標準 12 3" xfId="883"/>
+    <cellStyle name="40% - アクセント 5 3" xfId="884"/>
+    <cellStyle name="標準 7 4" xfId="885"/>
+    <cellStyle name="標準 5 6 2 2 3" xfId="886"/>
+    <cellStyle name="0301" xfId="887"/>
+    <cellStyle name="Normal 19 2 2" xfId="888"/>
+    <cellStyle name="標準 5 6 3" xfId="889"/>
+    <cellStyle name="Currency [0]" xfId="890" builtinId="7"/>
+    <cellStyle name="標準 9 2" xfId="891"/>
+    <cellStyle name="標準 5 6 3 3" xfId="892"/>
+    <cellStyle name="標準 5 7" xfId="893"/>
+    <cellStyle name="標準 2 2 2 4 2" xfId="894"/>
+    <cellStyle name="通貨 2 5" xfId="895"/>
+    <cellStyle name="標準 5 8" xfId="896"/>
+    <cellStyle name="良い 2" xfId="897"/>
+    <cellStyle name="見出し 2 3" xfId="898"/>
+    <cellStyle name="標準 6" xfId="899"/>
+    <cellStyle name="標準 2 2 9 4" xfId="900"/>
+    <cellStyle name="標準 6 4" xfId="901"/>
+    <cellStyle name="標準 11 3" xfId="902"/>
+    <cellStyle name="40% - アクセント 4 3" xfId="903"/>
+    <cellStyle name="Normal 2 2 2 7 3" xfId="904"/>
+    <cellStyle name="Normal 7 3 2" xfId="905"/>
+    <cellStyle name="リンク セル 2" xfId="906"/>
+    <cellStyle name="標準 3 6 2 3 2" xfId="907"/>
+    <cellStyle name="標準 6 3 3 2 3" xfId="908"/>
+    <cellStyle name="標準_新債権業務フロー_業務フロー" xfId="909"/>
+    <cellStyle name="見出し 3 2 2" xfId="910"/>
+    <cellStyle name="標準 6 5" xfId="911"/>
+    <cellStyle name="リンク セル 3" xfId="912"/>
+    <cellStyle name="Normal 7 3 3" xfId="913"/>
+    <cellStyle name="標準 6 3 3 2 4" xfId="914"/>
+    <cellStyle name="標準 6 7 3" xfId="915"/>
+    <cellStyle name="標準 94" xfId="916"/>
+    <cellStyle name="標準 89" xfId="917"/>
+    <cellStyle name="標準 6 7 3 3" xfId="918"/>
+    <cellStyle name="標準 6 8" xfId="919"/>
+    <cellStyle name="標準 6 8 3" xfId="920"/>
+    <cellStyle name="標準 4 3" xfId="921"/>
+    <cellStyle name="標準 7 4 4" xfId="922"/>
+    <cellStyle name="SAPBEXexcCritical" xfId="923"/>
+    <cellStyle name="タイトル 2" xfId="924"/>
+    <cellStyle name="スタイル 1" xfId="925"/>
+    <cellStyle name="標準 2 7 2" xfId="926"/>
+    <cellStyle name="標準 7" xfId="927"/>
+    <cellStyle name="良い 3" xfId="928"/>
+    <cellStyle name="20% - Accent1" xfId="929" builtinId="30"/>
+    <cellStyle name="ハイパーリンク 2 3 4" xfId="930"/>
+    <cellStyle name="パーセント(0.00)" xfId="931"/>
+    <cellStyle name="40% - Accent4" xfId="932" builtinId="43"/>
+    <cellStyle name="標準 7 4 2" xfId="933"/>
+    <cellStyle name="標準 7 6 2 2" xfId="934"/>
+    <cellStyle name="標準 7 6 2 3" xfId="935"/>
+    <cellStyle name="標準 6 7 4" xfId="936"/>
+    <cellStyle name="Followed Hyperlink" xfId="937" builtinId="9"/>
+    <cellStyle name="標準 78" xfId="938"/>
+    <cellStyle name="標準 83" xfId="939"/>
+    <cellStyle name="Note" xfId="940" builtinId="10"/>
+    <cellStyle name="標準 84" xfId="941"/>
+    <cellStyle name="標準 79" xfId="942"/>
+    <cellStyle name="標準 118 2 2" xfId="943"/>
+    <cellStyle name="標準 2 4 5 2" xfId="944"/>
+    <cellStyle name="標準 2 2 10 3" xfId="945"/>
+    <cellStyle name="標準 8" xfId="946"/>
+    <cellStyle name="標準 8 10" xfId="947"/>
+    <cellStyle name="通貨 2 5 4" xfId="948"/>
+    <cellStyle name="標準 6 7 4 3" xfId="949"/>
+    <cellStyle name="標準 2 2 9 3" xfId="950"/>
+    <cellStyle name="標準 8 15" xfId="951"/>
+    <cellStyle name="標準 8 20" xfId="952"/>
+    <cellStyle name="標準 8 2" xfId="953"/>
+    <cellStyle name="標準 9 3" xfId="954"/>
+    <cellStyle name="標準 3 6 2 3 3" xfId="955"/>
+    <cellStyle name="Input" xfId="956" builtinId="20"/>
+    <cellStyle name="通貨 2 3 4" xfId="957"/>
+    <cellStyle name="標準 5 2 2 4 2 2" xfId="958"/>
+    <cellStyle name="Bad" xfId="959" builtinId="27"/>
+    <cellStyle name="標準 5 2 6" xfId="960"/>
+    <cellStyle name="Normal 8 3" xfId="961"/>
+    <cellStyle name="Normal 19 2 3" xfId="962"/>
+    <cellStyle name="標準 5 6 4" xfId="963"/>
+    <cellStyle name="標準 8 2 2" xfId="964"/>
+    <cellStyle name="SAPBEXaggItem" xfId="965"/>
+    <cellStyle name="標準 6 3 3 2 2" xfId="966"/>
+    <cellStyle name="標準 8 3" xfId="967"/>
+    <cellStyle name="標準 9 2 2" xfId="968"/>
+    <cellStyle name="標準 8 4" xfId="969"/>
+    <cellStyle name="標準 5 2 7 2" xfId="970"/>
+    <cellStyle name="標準 7 5" xfId="971"/>
+    <cellStyle name="標準 8 5 2" xfId="972"/>
+    <cellStyle name="標準 90" xfId="973"/>
+    <cellStyle name="標準 85" xfId="974"/>
+    <cellStyle name="標準 8 5 3" xfId="975"/>
+    <cellStyle name="標準 8 6 2" xfId="976"/>
+    <cellStyle name="標準 4 2 3" xfId="977"/>
+    <cellStyle name="ハイパーリンク 3 3 2 2 2" xfId="978"/>
+    <cellStyle name="標準 2 2 9 2" xfId="979"/>
+    <cellStyle name="標準 2 2 2 5" xfId="980"/>
+    <cellStyle name="標準 8 14" xfId="981"/>
+    <cellStyle name="標準 9 6" xfId="982"/>
+    <cellStyle name="標準 5 2 6 4" xfId="983"/>
+    <cellStyle name="標準 6 7" xfId="984"/>
+    <cellStyle name="Accent4" xfId="985" builtinId="41"/>
+    <cellStyle name="標準 8 19" xfId="986"/>
+    <cellStyle name="脱浦 [0.00]_?O±U" xfId="987"/>
+    <cellStyle name="標準 8 7" xfId="988"/>
+    <cellStyle name="脱浦_?O±U" xfId="989"/>
+    <cellStyle name="良い 2 2" xfId="990"/>
+    <cellStyle name="見出し 2 2 2" xfId="991"/>
+    <cellStyle name="標準 5 2" xfId="992"/>
+    <cellStyle name="標準 5 2 6 2 4" xfId="993"/>
+    <cellStyle name="Normal 9" xfId="994"/>
+    <cellStyle name="60% - Accent3" xfId="995" builtinId="40"/>
+    <cellStyle name="標準 3 2 3" xfId="996"/>
+    <cellStyle name="標準 7 7" xfId="997"/>
+    <cellStyle name="標準 2 8 2" xfId="998"/>
+    <cellStyle name="Good" xfId="999" builtinId="26"/>
+    <cellStyle name="標準 5 2 5 5" xfId="1000"/>
+    <cellStyle name="Normal 14 2" xfId="1001"/>
+    <cellStyle name="標準_03_02_01_申請書入力" xfId="1002"/>
+    <cellStyle name="ハイパーリンク 4" xfId="1003"/>
+    <cellStyle name="標準 5 2 2 4 2 4" xfId="1004"/>
+    <cellStyle name="Neutral" xfId="1005" builtinId="28"/>
+    <cellStyle name="標準 9" xfId="1006"/>
+    <cellStyle name="標準 122 7 3 2" xfId="1007"/>
+    <cellStyle name="標準 2 7 4" xfId="1008"/>
+    <cellStyle name="標準 8 6" xfId="1009"/>
+    <cellStyle name="標準 2 4 5 3 3" xfId="1010"/>
+    <cellStyle name="標準 16 2 3 3" xfId="1011"/>
+    <cellStyle name="見出し１" xfId="1012"/>
+    <cellStyle name="説明文 2" xfId="1013"/>
+    <cellStyle name="標準 3 2 2 2" xfId="1014"/>
+    <cellStyle name="標準 4 3 3 4" xfId="1015"/>
+    <cellStyle name="20% - Accent2" xfId="1016" builtinId="34"/>
+    <cellStyle name="40% - Accent5" xfId="1017" builtinId="47"/>
+    <cellStyle name="標準 7 4 3" xfId="1018"/>
+    <cellStyle name="標準 6 7 2 3" xfId="1019"/>
+    <cellStyle name="40% - Accent6" xfId="1020" builtinId="51"/>
+    <cellStyle name="20% - Accent3" xfId="1021" builtinId="38"/>
+    <cellStyle name="計算 2" xfId="1022"/>
+    <cellStyle name="標準 9 7" xfId="1023"/>
+    <cellStyle name="標準 8 6 3" xfId="1024"/>
+    <cellStyle name="標準 122 7 3 3 2" xfId="1025"/>
+    <cellStyle name="標準 5 6 4 3" xfId="1026"/>
+    <cellStyle name="通貨 2 3 4 3" xfId="1027"/>
+    <cellStyle name="集計 3" xfId="1028"/>
+    <cellStyle name="標準 88" xfId="1029"/>
+    <cellStyle name="標準 93" xfId="1030"/>
+    <cellStyle name="標準 6 7 3 2" xfId="1031"/>
+    <cellStyle name="20% - アクセント 5 2 2" xfId="1032"/>
+    <cellStyle name="20% - Accent4" xfId="1033" builtinId="42"/>
+    <cellStyle name="標準 122 9 2" xfId="1034"/>
+    <cellStyle name="計算 3" xfId="1035"/>
+    <cellStyle name="標準 6 4 2" xfId="1036"/>
+    <cellStyle name="標準 2 2 7 2" xfId="1037"/>
+    <cellStyle name="桁区切り 2 2 3" xfId="1038"/>
+    <cellStyle name="Accent6" xfId="1039" builtinId="49"/>
+    <cellStyle name="標準 6 7 2 2" xfId="1040"/>
+    <cellStyle name="標準 43" xfId="1041"/>
+    <cellStyle name="標準 38" xfId="1042"/>
+    <cellStyle name="見出し 2 2" xfId="1043"/>
+    <cellStyle name="標準 5" xfId="1044"/>
+    <cellStyle name="桁区切り 2 2" xfId="1045"/>
+    <cellStyle name="標準 9 2 2 2 2" xfId="1046"/>
+    <cellStyle name="標準 7 2 6" xfId="1047"/>
+    <cellStyle name="標準 5 2 2 5" xfId="1048"/>
+    <cellStyle name="標準 72" xfId="1049"/>
+    <cellStyle name="標準 67" xfId="1050"/>
+    <cellStyle name="標準 4 2" xfId="1051"/>
+    <cellStyle name="標準 2 5 2" xfId="1052"/>
+    <cellStyle name="標準 3 6 2 2 2" xfId="1053"/>
+    <cellStyle name="標準 9 3 2 3" xfId="1054"/>
+    <cellStyle name="標準 95" xfId="1055"/>
+    <cellStyle name="標準 6 6" xfId="1056"/>
+    <cellStyle name="標準 122 7 3" xfId="1057"/>
+    <cellStyle name="計算 2 2" xfId="1058"/>
+    <cellStyle name="標準 5 2 6 3" xfId="1059"/>
+    <cellStyle name="60% - Accent4" xfId="1060" builtinId="44"/>
+    <cellStyle name="標準 3 2 4" xfId="1061"/>
+    <cellStyle name="標準 87" xfId="1062"/>
+    <cellStyle name="標準 92" xfId="1063"/>
+    <cellStyle name="60% - アクセント 5 3" xfId="1064"/>
+    <cellStyle name="Linked Cell" xfId="1065" builtinId="24"/>
+    <cellStyle name="標準 3 2 3 2" xfId="1066"/>
+    <cellStyle name="標準 8 9" xfId="1067"/>
+    <cellStyle name="説明文 3" xfId="1068"/>
+    <cellStyle name="桁区切り 2 3 2" xfId="1069"/>
+    <cellStyle name="標準 6 4 3" xfId="1070"/>
+    <cellStyle name="標準 2 2 7 3" xfId="1071"/>
+    <cellStyle name="Warning Text" xfId="1072" builtinId="11"/>
+    <cellStyle name="Normal 19 2" xfId="1073"/>
+    <cellStyle name="Normal 24 2" xfId="1074"/>
+    <cellStyle name="60% - Accent2" xfId="1075" builtinId="36"/>
+    <cellStyle name="標準 3 9" xfId="1076"/>
+    <cellStyle name="標準 5 2 3 2" xfId="1077"/>
+    <cellStyle name="標準 117" xfId="1078"/>
+    <cellStyle name="標準 122" xfId="1079"/>
+    <cellStyle name="標準 3 4 2" xfId="1080"/>
+    <cellStyle name="標準 10" xfId="1081"/>
+    <cellStyle name="ハイパーリンク 2 9 2 2" xfId="1082"/>
+    <cellStyle name="60% - Accent6" xfId="1083" builtinId="52"/>
+    <cellStyle name="標準 2 2 7" xfId="1084"/>
+    <cellStyle name="Check Cell" xfId="1085" builtinId="23"/>
+    <cellStyle name="標準 6 8 2" xfId="1086"/>
+    <cellStyle name="Percent" xfId="1087" builtinId="5"/>
+    <cellStyle name="Heading 4" xfId="1088" builtinId="19"/>
+    <cellStyle name="標準 8 2 2 3" xfId="1089"/>
+    <cellStyle name="見出し 1 2 2" xfId="1090"/>
+    <cellStyle name="アクセント 6 2 2" xfId="1091"/>
+    <cellStyle name="通貨 2 5 5" xfId="1092"/>
+    <cellStyle name="標準 8 11" xfId="1093"/>
+    <cellStyle name="標準 3 2 2 6" xfId="1094"/>
+    <cellStyle name="標準 8 2 2 2" xfId="1095"/>
+    <cellStyle name="標準 6 2 4" xfId="1096"/>
+    <cellStyle name="Heading 3" xfId="1097" builtinId="18"/>
+    <cellStyle name="標準 5 6 4 2" xfId="1098"/>
+    <cellStyle name="標準 77" xfId="1099"/>
+    <cellStyle name="標準 82" xfId="1100"/>
+    <cellStyle name="標準 7 2 5" xfId="1101"/>
+    <cellStyle name="Normal 7" xfId="1102"/>
+    <cellStyle name="60% - Accent1" xfId="1103" builtinId="32"/>
+    <cellStyle name="標準 5 2 6 3 2" xfId="1104"/>
+    <cellStyle name="標準 9 3 2 2" xfId="1105"/>
+    <cellStyle name="標準 6 7 4 2" xfId="1106"/>
+    <cellStyle name="ハイパーリンク 2 3 2" xfId="1107"/>
+    <cellStyle name="40% - Accent2" xfId="1108" builtinId="35"/>
+    <cellStyle name="60% - Accent5" xfId="1109" builtinId="48"/>
+    <cellStyle name="Accent5" xfId="1110" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="1111" builtinId="46"/>
+    <cellStyle name="標準 6 3 3 2" xfId="1112"/>
+    <cellStyle name="標準_MemPayorgChk(支払所属チェック)_設計書_v.4.0.0.1【Gr会社展開】" xfId="1113"/>
+    <cellStyle name="標準 2 3 5 4 2" xfId="1114"/>
+    <cellStyle name="20% - Accent6" xfId="1115" builtinId="50"/>
+    <cellStyle name="Accent1" xfId="1116" builtinId="29"/>
+    <cellStyle name="標準 6 4 4" xfId="1117"/>
+    <cellStyle name="標準 9 2 2 2" xfId="1118"/>
+    <cellStyle name="標準 122 11" xfId="1119"/>
+    <cellStyle name="標準 5 2 2 3" xfId="1120"/>
+    <cellStyle name="標準 65" xfId="1121"/>
+    <cellStyle name="標準 70" xfId="1122"/>
+    <cellStyle name="Total" xfId="1123" builtinId="25"/>
+    <cellStyle name="Currency" xfId="1124" builtinId="4"/>
+    <cellStyle name="標準 86" xfId="1125"/>
+    <cellStyle name="標準 91" xfId="1126"/>
+    <cellStyle name="説明文 2 2" xfId="1127"/>
+    <cellStyle name="標準 2 2 6 3" xfId="1128"/>
+    <cellStyle name="標準 6 2 2" xfId="1129"/>
+    <cellStyle name="Heading 1" xfId="1130" builtinId="16"/>
     <cellStyle name="Normal 2 2 2 2_Header" xfId="1131"/>
-    <cellStyle name="Heading 2" xfId="1132" builtinId="17"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="1133"/>
+    <cellStyle name="標準 6 2 3" xfId="1132"/>
+    <cellStyle name="Heading 2" xfId="1133" builtinId="17"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -16518,7 +16513,7 @@
   <sheetPr/>
   <dimension ref="A1:BK64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" topLeftCell="K9" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" topLeftCell="K21" workbookViewId="0">
       <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
@@ -18556,7 +18551,7 @@
   <dimension ref="A1:BJ20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO17" sqref="AO17:BF17"/>
+      <selection activeCell="I13" sqref="I13:AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25333333333333" defaultRowHeight="11.25"/>
@@ -19959,8 +19954,8 @@
   </sheetPr>
   <dimension ref="A1:BH75"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.37333333333333" defaultRowHeight="12" customHeight="true"/>
@@ -22361,7 +22356,7 @@
     <mergeCell ref="B14:D55"/>
   </mergeCells>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.62992125984252" bottom="0.551181102362205" header="0.275590551181102" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C－&amp;P－&amp;R&amp;"ＭＳ Ｐゴシック,倾斜"&amp;6Nittetsu-Hitachi Systems Engineering, Inc&amp;"ＭＳ Ｐゴシック,標準".</oddFooter>
   </headerFooter>
